--- a/output/Keywords.xlsx
+++ b/output/Keywords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,14 +391,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vaccine</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>2538</v>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>2538</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -409,14 +409,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mask</t>
+          <t>service</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>831</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>831</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -427,14 +427,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>foreigner</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -445,14 +445,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>1479</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>1479</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -463,14 +463,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>lta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>531</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>531</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -481,14 +481,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>singaporeans</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -499,14 +499,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,14 +517,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>card</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="C9" t="n">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -535,14 +535,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>599</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>599</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>get</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -571,14 +571,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>mrt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>1438</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>1438</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -589,14 +589,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>covid 19</t>
+          <t>commuter</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>492</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>492</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,14 +607,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>still</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>die</t>
+          <t>even</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>483</v>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>483</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -643,14 +643,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>voucher</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>1981</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>1981</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>charge</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -697,14 +697,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>peak</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -715,14 +715,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wear</t>
+          <t>give</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>481</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>481</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -733,14 +733,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>ride</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>route</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -769,14 +769,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>facebook</t>
+          <t>seat</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>news</t>
+          <t>driver</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>line</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,14 +841,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>story</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -859,14 +859,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>want</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>592</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>592</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>smrt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>682</v>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>682</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,14 +895,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>bus train</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>hike</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>ptc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -949,14 +949,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>fare</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>4278</v>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>4278</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>flu</t>
+          <t>refund</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>sg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>jam</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,14 +1021,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>day</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1039,14 +1039,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>take</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>734</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>734</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>increment</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1075,14 +1075,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>1211</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>1211</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,14 +1093,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>bus fare</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1111,14 +1111,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>india</t>
+          <t>take mrt</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>manage</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1147,14 +1147,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>share</t>
+          <t>min</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>mrt fare</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>take vaccine</t>
+          <t>peak hour</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1219,14 +1219,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>facebook com</t>
+          <t>contactless</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1237,14 +1237,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>side effect</t>
+          <t>need</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>664</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>664</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1255,14 +1255,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>already</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1273,14 +1273,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>make</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>851</v>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>851</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>luxury</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>26.99581222948297</v>
+        <v>41.46480259854941</v>
       </c>
       <c r="C52" t="n">
-        <v>27.69560016599456</v>
+        <v>42.23519125440104</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>die</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20.51736514882382</v>
+        <v>36.81674329163354</v>
       </c>
       <c r="C53" t="n">
-        <v>21.23317074129784</v>
+        <v>37.54255025698907</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1327,14 +1327,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>facebook</t>
+          <t>next train</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14.07246995292036</v>
+        <v>35.88059653336229</v>
       </c>
       <c r="C54" t="n">
-        <v>14.77110490706413</v>
+        <v>36.60430193928166</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1345,14 +1345,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>singaporeans foreigner</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13.14996522646144</v>
+        <v>34.95148799617206</v>
       </c>
       <c r="C55" t="n">
-        <v>13.84782763348454</v>
+        <v>35.66585388681704</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>thousand</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13.14828940231578</v>
+        <v>34.94446446939513</v>
       </c>
       <c r="C56" t="n">
-        <v>13.84779043394972</v>
+        <v>35.66600497908439</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12.22322456159603</v>
+        <v>34.01133627385344</v>
       </c>
       <c r="C57" t="n">
-        <v>12.92463100454664</v>
+        <v>34.72760936898745</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>even wait</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11.29706743094066</v>
+        <v>32.13436755433117</v>
       </c>
       <c r="C58" t="n">
-        <v>12.00153385072071</v>
+        <v>32.8509993026778</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1417,14 +1417,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>luxury car</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11.29388289241126</v>
+        <v>31.19514045729496</v>
       </c>
       <c r="C59" t="n">
-        <v>12.00152899351223</v>
+        <v>31.91275224655028</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>wait next</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.38201684922963</v>
+        <v>31.19116611580982</v>
       </c>
       <c r="C60" t="n">
-        <v>11.07832234553075</v>
+        <v>31.91277121903305</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1453,14 +1453,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>smrt lose</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10.36663542394337</v>
+        <v>31.19021063910995</v>
       </c>
       <c r="C61" t="n">
-        <v>11.07854103303164</v>
+        <v>31.91287888121291</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1471,14 +1471,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>india</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10.36533908939043</v>
+        <v>32.10667588485226</v>
       </c>
       <c r="C62" t="n">
-        <v>11.07861335912205</v>
+        <v>32.85144442476251</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1489,14 +1489,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>facebook com</t>
+          <t>proposal</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9.46064582802771</v>
+        <v>31.18287584153653</v>
       </c>
       <c r="C63" t="n">
-        <v>10.15513900590927</v>
+        <v>31.91290707940193</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1507,14 +1507,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>side effect</t>
+          <t>short trip</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9.458125611840764</v>
+        <v>31.1777637177317</v>
       </c>
       <c r="C64" t="n">
-        <v>10.15515031875361</v>
+        <v>31.91295407669701</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1525,14 +1525,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>thousand commuter</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.453318509009518</v>
+        <v>30.25818254079956</v>
       </c>
       <c r="C65" t="n">
-        <v>10.15501889097904</v>
+        <v>30.97440452059584</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>increment fare</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8.530418529157361</v>
+        <v>30.25732973273537</v>
       </c>
       <c r="C66" t="n">
-        <v>9.231871742389339</v>
+        <v>30.97442547649731</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>downgrade</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7.611956998034671</v>
+        <v>32.08965056083131</v>
       </c>
       <c r="C67" t="n">
-        <v>8.308806962430278</v>
+        <v>32.85163146363458</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1579,14 +1579,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>mrt everyday</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7.600600869344346</v>
+        <v>29.32156993593372</v>
       </c>
       <c r="C68" t="n">
-        <v>8.30867834168542</v>
+        <v>30.03608574020341</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1597,14 +1597,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>death rate</t>
+          <t>single day</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.690766704648194</v>
+        <v>29.32099296352228</v>
       </c>
       <c r="C69" t="n">
-        <v>7.385608263967532</v>
+        <v>30.03610341513978</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1615,14 +1615,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>see ceo</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6.689870194818038</v>
+        <v>29.31962428564555</v>
       </c>
       <c r="C70" t="n">
-        <v>7.385602395624736</v>
+        <v>30.03613373988264</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,14 +1633,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>reddit</t>
+          <t>day take</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.68899065951662</v>
+        <v>29.31865457208176</v>
       </c>
       <c r="C71" t="n">
-        <v>7.385547170582623</v>
+        <v>30.03614756486676</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1651,14 +1651,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>reactivation</t>
+          <t>fare concession</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.681627684112367</v>
+        <v>29.31648902209667</v>
       </c>
       <c r="C72" t="n">
-        <v>7.385519387496529</v>
+        <v>30.03615445226969</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1669,14 +1669,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>journalist</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6.675936212159973</v>
+        <v>28.38342354620394</v>
       </c>
       <c r="C73" t="n">
-        <v>7.385395002541694</v>
+        <v>29.09778870746489</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>155 thousand</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5.76660906041193</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C74" t="n">
-        <v>6.462392922408176</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>actual reason</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.763520819795588</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C75" t="n">
-        <v>6.462396891092558</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1723,14 +1723,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>car house</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5.753573118613265</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C76" t="n">
-        <v>6.462248819533542</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>remove</t>
+          <t>ceo corporate</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.836989272731651</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C77" t="n">
-        <v>5.539103292852395</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1759,14 +1759,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>commuter ride</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.83695526436174</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C78" t="n">
-        <v>5.539097901656845</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1777,14 +1777,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lock</t>
+          <t>corporate leader</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.836598830672861</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C79" t="n">
-        <v>5.539168634015861</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,14 +1795,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>downgrade luxury</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.834795540164893</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C80" t="n">
-        <v>5.539110404390867</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>everyday fro</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.828714303279879</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C81" t="n">
-        <v>5.539040697559686</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1831,14 +1831,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>fro sometimes</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.233932428550848</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C82" t="n">
-        <v>10.13810813166665</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1849,14 +1849,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>house actual</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.842666805663782</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C83" t="n">
-        <v>6.449455182622767</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,14 +1867,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>leader smrt</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9.425117929695473</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C84" t="n">
-        <v>12.99789601526038</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1885,14 +1885,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>lose 155</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.418306359759221</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C85" t="n">
-        <v>9.245979419175317</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1903,14 +1903,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>chinese</t>
+          <t>reason increment</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3.819133351192358</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C86" t="n">
-        <v>5.566233510090898</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1921,14 +1921,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>conspiracy</t>
+          <t>sbs downgrade</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.849037710679194</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C87" t="n">
-        <v>7.434042767864448</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>train see</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7.16354660811408</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C88" t="n">
-        <v>11.03299857519546</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1957,14 +1957,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>train single</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10.04700991100434</v>
+        <v>28.38341875239697</v>
       </c>
       <c r="C89" t="n">
-        <v>15.63167355904411</v>
+        <v>29.09778875785303</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1975,14 +1975,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>cheap transport</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6.986489173795537</v>
+        <v>28.38055238925933</v>
       </c>
       <c r="C90" t="n">
-        <v>11.03884531810948</v>
+        <v>29.09785533325771</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1993,14 +1993,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>shoot</t>
+          <t>fare want</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.586201565557616</v>
+        <v>28.37365345171606</v>
       </c>
       <c r="C91" t="n">
-        <v>7.361303773080444</v>
+        <v>29.098021278935</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2011,14 +2011,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>transport pass</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5.753693728664135</v>
+        <v>27.44250420102079</v>
       </c>
       <c r="C92" t="n">
-        <v>9.304312541937751</v>
+        <v>28.15954656975915</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2029,14 +2029,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>audacity</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17.61870038649955</v>
+        <v>27.44035400159829</v>
       </c>
       <c r="C93" t="n">
-        <v>28.64165593253715</v>
+        <v>28.15962358513677</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2047,14 +2047,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>refund singaporeans</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.919806840002284</v>
+        <v>26.50683274255082</v>
       </c>
       <c r="C94" t="n">
-        <v>6.510705103736214</v>
+        <v>27.22119866627522</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>trip refund</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3.299826321319678</v>
+        <v>26.50683274255082</v>
       </c>
       <c r="C95" t="n">
-        <v>5.517470062966011</v>
+        <v>27.22119866627522</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2083,14 +2083,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>probably</t>
+          <t>time make</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.642455902826383</v>
+        <v>25.5536347475092</v>
       </c>
       <c r="C96" t="n">
-        <v>8.274639581823985</v>
+        <v>26.28316688413617</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2101,14 +2101,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>eligible</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>15.1432653276146</v>
+        <v>24.62307566463579</v>
       </c>
       <c r="C97" t="n">
-        <v>27.54391888476554</v>
+        <v>25.34474530981845</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>take responsibility</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5.584334254333806</v>
+        <v>23.69144872534171</v>
       </c>
       <c r="C98" t="n">
-        <v>10.25662342314017</v>
+        <v>24.40632717875431</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2137,14 +2137,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>impose</t>
+          <t>select committee</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.998282833684459</v>
+        <v>23.68939692672656</v>
       </c>
       <c r="C99" t="n">
-        <v>5.517875342028383</v>
+        <v>24.40635525098529</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2155,14 +2155,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>make right</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.487184915427675</v>
+        <v>23.68410226356307</v>
       </c>
       <c r="C100" t="n">
-        <v>6.432618766923826</v>
+        <v>24.40649804293293</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2173,14 +2173,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>know stop</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.474770717530757</v>
+        <v>22.75275813461563</v>
       </c>
       <c r="C101" t="n">
-        <v>6.435917001930521</v>
+        <v>23.4680429159607</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>refund</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.908973356006055</v>
+        <v>63.73833559574641</v>
       </c>
       <c r="C102" t="n">
-        <v>7.346432114891759</v>
+        <v>67.65288537232928</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2209,14 +2209,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>increment</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.655885910046494</v>
+        <v>63.26241385990771</v>
       </c>
       <c r="C103" t="n">
-        <v>13.8305277705411</v>
+        <v>69.51927412859906</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>shall</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3.915165689941709</v>
+        <v>45.16106769661607</v>
       </c>
       <c r="C104" t="n">
-        <v>7.45834855952867</v>
+        <v>48.81517087512145</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2245,14 +2245,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>transport voucher</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5.242463940991176</v>
+        <v>54.68153197047022</v>
       </c>
       <c r="C105" t="n">
-        <v>11.15272958018816</v>
+        <v>60.08215443649244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2263,14 +2263,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>foreigner</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>16.23734312908643</v>
+        <v>126.5706691828943</v>
       </c>
       <c r="C106" t="n">
-        <v>60.19161611279086</v>
+        <v>169.0770323739434</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2281,14 +2281,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>voucher</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.08636125092093</v>
+        <v>94.83077423340713</v>
       </c>
       <c r="C107" t="n">
-        <v>31.39744186197944</v>
+        <v>123.2601641803162</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>singaporeans</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>7.137037366361127</v>
+        <v>114.9660638669681</v>
       </c>
       <c r="C108" t="n">
-        <v>18.49313621852694</v>
+        <v>233.3316031589076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>story</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>11.26524847105113</v>
+        <v>65.72887496909027</v>
       </c>
       <c r="C109" t="n">
-        <v>46.10998976166158</v>
+        <v>112.715381105505</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2335,14 +2335,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>everyday</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>7.124484206396428</v>
+        <v>48.85694460065091</v>
       </c>
       <c r="C110" t="n">
-        <v>22.06274420573744</v>
+        <v>73.44979169771339</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2353,14 +2353,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>take mrt</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>8.547929348426294</v>
+        <v>57.66541366612601</v>
       </c>
       <c r="C111" t="n">
-        <v>34.22362201725175</v>
+        <v>98.39234748661164</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2371,14 +2371,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>mrt train</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>8.070529415044524</v>
+        <v>35.84498695758407</v>
       </c>
       <c r="C112" t="n">
-        <v>31.33141845489742</v>
+        <v>44.14415563270286</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2389,14 +2389,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>singapore</t>
+          <t>charge</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>7.008824925445747</v>
+        <v>94.85246107652594</v>
       </c>
       <c r="C113" t="n">
-        <v>30.90953147936401</v>
+        <v>256.1910525008694</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2407,14 +2407,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>household</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6.578379254224689</v>
+        <v>48.1032355971563</v>
       </c>
       <c r="C114" t="n">
-        <v>31.95931724112641</v>
+        <v>86.73702306856964</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2425,14 +2425,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>flu</t>
+          <t>fro</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5.470437477646858</v>
+        <v>30.94835465218241</v>
       </c>
       <c r="C115" t="n">
-        <v>21.05855051637408</v>
+        <v>34.76940522539207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.54473070882139</v>
+        <v>184.8720214484725</v>
       </c>
       <c r="C116" t="n">
-        <v>24.67590643125844</v>
+        <v>1479.896325272496</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2461,14 +2461,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.98644200822578</v>
+        <v>120.2290252088056</v>
       </c>
       <c r="C117" t="n">
-        <v>18.28436048176507</v>
+        <v>599.5262635716595</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2479,734 +2479,734 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>fare</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>16.59232403942307</v>
+        <v>288.1611838467069</v>
       </c>
       <c r="C118" t="n">
-        <v>17.30705307461439</v>
+        <v>4278.77063160196</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>sg</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>13.86890656877179</v>
+        <v>69.94606146371854</v>
       </c>
       <c r="C119" t="n">
-        <v>14.5762782140986</v>
+        <v>206.4012668191819</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>13.86450290530017</v>
+        <v>185.3077135450753</v>
       </c>
       <c r="C120" t="n">
-        <v>14.57644036548831</v>
+        <v>1981.502665484615</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>commuter</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>12.03612522752974</v>
+        <v>98.22035891339199</v>
       </c>
       <c r="C121" t="n">
-        <v>12.7563010696312</v>
+        <v>492.9395890513251</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>give</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11.14119321453731</v>
+        <v>96.06897253315319</v>
       </c>
       <c r="C122" t="n">
-        <v>11.84567827120409</v>
+        <v>481.1103792246385</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>reserve</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>9.31595483319583</v>
+        <v>37.06680522172746</v>
       </c>
       <c r="C123" t="n">
-        <v>10.02528391001977</v>
+        <v>53.92258818087674</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>many people</t>
+          <t>bus train</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>8.411159178444413</v>
+        <v>70.86665256233229</v>
       </c>
       <c r="C124" t="n">
-        <v>9.115150786570382</v>
+        <v>244.1442319129992</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>try</t>
+          <t>mrt</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>7.502679932682994</v>
+        <v>145.6083499782649</v>
       </c>
       <c r="C125" t="n">
-        <v>8.20490230260156</v>
+        <v>1438.00199090357</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vaccinate</t>
+          <t>leader</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7.494672448878173</v>
+        <v>35.8996378778195</v>
       </c>
       <c r="C126" t="n">
-        <v>8.20534978690289</v>
+        <v>51.06268823057761</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>thank</t>
+          <t>short</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6.591673859676653</v>
+        <v>49.59570077879054</v>
       </c>
       <c r="C127" t="n">
-        <v>7.294706360720129</v>
+        <v>112.6530817371048</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>smrt</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5.684623887292202</v>
+        <v>101.6293585789861</v>
       </c>
       <c r="C128" t="n">
-        <v>6.38455381151206</v>
+        <v>682.3471413936228</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>make</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5.682963774946079</v>
+        <v>106.3934650384235</v>
       </c>
       <c r="C129" t="n">
-        <v>6.384490927130525</v>
+        <v>851.9078384051311</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>take</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5.676898346218969</v>
+        <v>95.81300249708042</v>
       </c>
       <c r="C130" t="n">
-        <v>6.384540104084626</v>
+        <v>734.2111229697846</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>gms</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.776467518588135</v>
+        <v>119.360807118616</v>
       </c>
       <c r="C131" t="n">
-        <v>5.474298978184139</v>
+        <v>2538.756291680055</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>exactly</t>
+          <t>subsidy</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.775640770074913</v>
+        <v>51.8944194937925</v>
       </c>
       <c r="C132" t="n">
-        <v>5.474311830715107</v>
+        <v>207.3430180015556</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4.772119034985508</v>
+        <v>79.70192486337484</v>
       </c>
       <c r="C133" t="n">
-        <v>5.474290070023742</v>
+        <v>932.9151462544258</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>elderly</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.771752531596736</v>
+        <v>37.22602412831546</v>
       </c>
       <c r="C134" t="n">
-        <v>5.474366648691371</v>
+        <v>67.87886632633221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ever</t>
+          <t>card</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4.769573739940408</v>
+        <v>55.09914578553242</v>
       </c>
       <c r="C135" t="n">
-        <v>5.474325840560956</v>
+        <v>280.0391626385892</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>system</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>10.92772926926829</v>
+        <v>64.68458232653248</v>
       </c>
       <c r="C136" t="n">
-        <v>12.77217613929151</v>
+        <v>538.684776054286</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>share</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10.87076714385633</v>
+        <v>63.90454854658828</v>
       </c>
       <c r="C137" t="n">
-        <v>12.80422923128371</v>
+        <v>536.8010943190289</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>car</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10.85947449565678</v>
+        <v>52.04717500251805</v>
       </c>
       <c r="C138" t="n">
-        <v>12.80459104552168</v>
+        <v>260.9805312590391</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>trip</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8.388850045643917</v>
+        <v>47.7684963415787</v>
       </c>
       <c r="C139" t="n">
-        <v>10.06330160911805</v>
+        <v>188.212231662493</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vaccination</t>
+          <t>right</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>9.314312343966137</v>
+        <v>47.37875768487314</v>
       </c>
       <c r="C140" t="n">
-        <v>11.92010431949624</v>
+        <v>206.6141213640373</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>24.9003310958187</v>
+        <v>47.07794709877889</v>
       </c>
       <c r="C141" t="n">
-        <v>31.95931724112641</v>
+        <v>215.065031598144</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>public</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>17.74645437285983</v>
+        <v>70.24589405920449</v>
       </c>
       <c r="C142" t="n">
-        <v>22.94387315255985</v>
+        <v>1506.882587679508</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>get infect</t>
+          <t>public transport</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4.780889429715937</v>
+        <v>65.13021250518044</v>
       </c>
       <c r="C143" t="n">
-        <v>6.397361222600514</v>
+        <v>1137.893983218011</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5.423497441783224</v>
+        <v>74.60101049068749</v>
       </c>
       <c r="C144" t="n">
-        <v>7.298500838991149</v>
+        <v>2705.280659002383</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>see</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5.98826643383432</v>
+        <v>48.93486977078491</v>
       </c>
       <c r="C145" t="n">
-        <v>8.208850085309853</v>
+        <v>308.7754092587215</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>know</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>9.205807260005667</v>
+        <v>50.67381454928658</v>
       </c>
       <c r="C146" t="n">
-        <v>12.79649205251606</v>
+        <v>398.7157399356767</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>transport fare</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6.510036039880819</v>
+        <v>51.17234564705881</v>
       </c>
       <c r="C147" t="n">
-        <v>9.120364681688732</v>
+        <v>458.6070519657549</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vax</t>
+          <t>day</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4.545670443981165</v>
+        <v>46.34623750791251</v>
       </c>
       <c r="C148" t="n">
-        <v>6.387455658522692</v>
+        <v>324.4462035451572</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>train fare</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>12.81714591712987</v>
+        <v>44.33052421974021</v>
       </c>
       <c r="C149" t="n">
-        <v>18.28436048176507</v>
+        <v>240.2988073322301</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>infect</t>
+          <t>say</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>8.840393472130822</v>
+        <v>47.73716251276095</v>
       </c>
       <c r="C150" t="n">
-        <v>12.78195530925583</v>
+        <v>612.4660629511319</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>free</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>9.884823890488699</v>
+        <v>42.07460231092747</v>
       </c>
       <c r="C151" t="n">
-        <v>14.63337927319825</v>
+        <v>193.1688564277105</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>want</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7.257071497823594</v>
+        <v>46.03504464790537</v>
       </c>
       <c r="C152" t="n">
-        <v>10.99836585401754</v>
+        <v>592.6262613255417</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>lose</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6.034068020949045</v>
+        <v>40.61534032603839</v>
       </c>
       <c r="C153" t="n">
-        <v>9.149053157882017</v>
+        <v>169.0282124153021</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>6.630495448080114</v>
+        <v>40.10847278797239</v>
       </c>
       <c r="C154" t="n">
-        <v>10.06362907520726</v>
+        <v>187.0788848688345</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>must</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.575823400984552</v>
+        <v>40.86914394185562</v>
       </c>
       <c r="C155" t="n">
-        <v>10.03221264090176</v>
+        <v>275.2399824297356</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fb</t>
+          <t>ptc</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6.591599678403974</v>
+        <v>41.40179514593395</v>
       </c>
       <c r="C156" t="n">
-        <v>10.06426443224105</v>
+        <v>361.3048354175437</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>5.827636686289505</v>
+        <v>42.41644374069853</v>
       </c>
       <c r="C157" t="n">
-        <v>9.121658147657097</v>
+        <v>1126.45685724597</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>post</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>19.18727127539999</v>
+        <v>124.5686119889157</v>
       </c>
       <c r="C158" t="n">
-        <v>30.07501851793927</v>
+        <v>125.2962374205388</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3217,14 +3217,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3.867475399180244</v>
+        <v>106.2481864399063</v>
       </c>
       <c r="C159" t="n">
-        <v>6.389082665312493</v>
+        <v>106.981260288951</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3235,14 +3235,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>bill</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3.84544770161831</v>
+        <v>96.62633004362206</v>
       </c>
       <c r="C160" t="n">
-        <v>6.410787902772483</v>
+        <v>97.34226626837399</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3253,14 +3253,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dr</t>
+          <t>take public</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5.855758545463222</v>
+        <v>89.86359163884893</v>
       </c>
       <c r="C161" t="n">
-        <v>10.0749745499226</v>
+        <v>90.59436856862081</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3271,14 +3271,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>life</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3.673371803466858</v>
+        <v>80.23073513806929</v>
       </c>
       <c r="C162" t="n">
-        <v>6.400270092570146</v>
+        <v>80.95524123358786</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3289,14 +3289,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4.767312368638296</v>
+        <v>78.29011546357687</v>
       </c>
       <c r="C163" t="n">
-        <v>8.316687076485964</v>
+        <v>79.02719131034146</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3307,14 +3307,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>increase transport</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.704998669347031</v>
+        <v>71.56036208076453</v>
       </c>
       <c r="C164" t="n">
-        <v>8.211889454433924</v>
+        <v>72.27990790887692</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3325,14 +3325,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>increase public</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>13.67360162602168</v>
+        <v>71.55880248350871</v>
       </c>
       <c r="C165" t="n">
-        <v>24.67590643125844</v>
+        <v>72.27979924022097</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3343,14 +3343,14 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>wage</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2.940229853671078</v>
+        <v>69.63070902495788</v>
       </c>
       <c r="C166" t="n">
-        <v>5.479049384826839</v>
+        <v>70.35198823595522</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>ppl</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>7.329747251578425</v>
+        <v>69.6103653376538</v>
       </c>
       <c r="C167" t="n">
-        <v>13.68052950174495</v>
+        <v>70.35174355990777</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3379,14 +3379,14 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>huge</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>11.71270347336984</v>
+        <v>64.82048738884238</v>
       </c>
       <c r="C168" t="n">
-        <v>22.06274420573744</v>
+        <v>65.53250195980273</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3397,14 +3397,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>increase mrt</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>23.94553286992284</v>
+        <v>66.72650497960439</v>
       </c>
       <c r="C169" t="n">
-        <v>47.39991943951988</v>
+        <v>67.45979439883028</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>election</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>8.857286025042479</v>
+        <v>64.81564329878965</v>
       </c>
       <c r="C170" t="n">
-        <v>18.23905698960216</v>
+        <v>65.53235639548201</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3433,14 +3433,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>make money</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>13.22905871547919</v>
+        <v>63.84276022090238</v>
       </c>
       <c r="C171" t="n">
-        <v>31.39744186197944</v>
+        <v>64.56824479164342</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3451,14 +3451,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>vaccine</t>
+          <t>protester</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>21.77912840043413</v>
+        <v>61.93209163893874</v>
       </c>
       <c r="C172" t="n">
-        <v>88.15330273438785</v>
+        <v>62.64074962845331</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3469,14 +3469,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>10.26904898739697</v>
+        <v>55.17845895260644</v>
       </c>
       <c r="C173" t="n">
-        <v>30.12490132389416</v>
+        <v>55.89312328748206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3487,14 +3487,14 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>hear</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5.240939879965122</v>
+        <v>53.24102766469957</v>
       </c>
       <c r="C174" t="n">
-        <v>10.03555090742632</v>
+        <v>53.96499597045327</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3505,14 +3505,14 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>true</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5.945682087887137</v>
+        <v>51.3245647775105</v>
       </c>
       <c r="C175" t="n">
-        <v>27.54391888476554</v>
+        <v>52.03737970938257</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3523,14 +3523,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>jab</t>
+          <t>make loss</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5.071679800146073</v>
+        <v>51.32158490015683</v>
       </c>
       <c r="C176" t="n">
-        <v>13.80297499273329</v>
+        <v>52.03732360805482</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3541,14 +3541,14 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>senior citizen</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.901219960630861</v>
+        <v>53.22088188693943</v>
       </c>
       <c r="C177" t="n">
-        <v>9.257762936084077</v>
+        <v>53.9647581359605</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3559,14 +3559,14 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train breakdown</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4.97054565432542</v>
+        <v>50.34784782400757</v>
       </c>
       <c r="C178" t="n">
-        <v>13.68620050735288</v>
+        <v>51.07323145935995</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3577,14 +3577,14 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>back home</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4.789842018494109</v>
+        <v>48.4358677636539</v>
       </c>
       <c r="C179" t="n">
-        <v>13.8305277705411</v>
+        <v>49.14564467172389</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3595,2122 +3595,5920 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>train operator</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>25.81450085318561</v>
+        <v>49.3738482213593</v>
       </c>
       <c r="C180" t="n">
-        <v>26.50427746045222</v>
+        <v>50.10900045722694</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>covid 19</t>
+          <t>incur</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>25.81450085318561</v>
+        <v>47.46989297234128</v>
       </c>
       <c r="C181" t="n">
-        <v>26.50427746045222</v>
+        <v>48.18168533211617</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>13.4965469919634</v>
+        <v>48.40947550214374</v>
       </c>
       <c r="C182" t="n">
-        <v>14.18741372824053</v>
+        <v>49.14527248658791</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>take vaccine</t>
+          <t>capacity</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>11.59393191163206</v>
+        <v>45.54589503280713</v>
       </c>
       <c r="C183" t="n">
-        <v>12.29228393266394</v>
+        <v>46.25387086364377</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>earning</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>10.62785549770423</v>
+        <v>45.54341179388984</v>
       </c>
       <c r="C184" t="n">
-        <v>11.34406995561211</v>
+        <v>46.25383771503079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>8.761231341794401</v>
+        <v>46.48477404337768</v>
       </c>
       <c r="C185" t="n">
-        <v>9.450276771323814</v>
+        <v>47.21743985628856</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>sg</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>8.742074973164122</v>
+        <v>45.53048058164198</v>
       </c>
       <c r="C186" t="n">
-        <v>9.449533936985482</v>
+        <v>46.25355531370277</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>com news</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7.816092303808926</v>
+        <v>44.54544219674512</v>
       </c>
       <c r="C187" t="n">
-        <v>8.502885926315512</v>
+        <v>45.289313693518</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>distancing</t>
+          <t>beijing</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>7.813194272098896</v>
+        <v>41.69015413150593</v>
       </c>
       <c r="C188" t="n">
-        <v>8.502776093634159</v>
+        <v>42.39813180783032</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>increase gst</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>7.806820067658474</v>
+        <v>42.63592350178789</v>
       </c>
       <c r="C189" t="n">
-        <v>8.50253357664705</v>
+        <v>43.36161502765999</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>6.868896117876094</v>
+        <v>42.622012282547</v>
       </c>
       <c r="C190" t="n">
-        <v>7.555447912448649</v>
+        <v>43.36156397028714</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021 04</t>
+          <t>net</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6.868896117876094</v>
+        <v>40.72437923694693</v>
       </c>
       <c r="C191" t="n">
-        <v>7.555447912448649</v>
+        <v>41.43416951499695</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>cases</t>
+          <t>fare formula</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>6.868621647125964</v>
+        <v>40.72317676905755</v>
       </c>
       <c r="C192" t="n">
-        <v>7.55544096000691</v>
+        <v>41.43414443137691</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>covid vaccine</t>
+          <t>minimum</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6.866381530835914</v>
+        <v>40.70953082830479</v>
       </c>
       <c r="C193" t="n">
-        <v>7.555361719927886</v>
+        <v>41.43388988472392</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>straitstimes</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>6.866245831682991</v>
+        <v>39.7515967649271</v>
       </c>
       <c r="C194" t="n">
-        <v>7.555374352052554</v>
+        <v>40.47007135347652</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>straitstimes com</t>
+          <t>profitable</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>6.866245831682991</v>
+        <v>38.7873647608835</v>
       </c>
       <c r="C195" t="n">
-        <v>7.555374352052554</v>
+        <v>39.5061321807054</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>viral</t>
+          <t>reduction</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6.862445454940656</v>
+        <v>38.78507907992728</v>
       </c>
       <c r="C196" t="n">
-        <v>7.555234384183949</v>
+        <v>39.50610656817469</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>uk</t>
+          <t>fare price</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6.858033310389739</v>
+        <v>38.78398205468859</v>
       </c>
       <c r="C197" t="n">
-        <v>7.555044128489081</v>
+        <v>39.50608354052788</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>news</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>18.8271203748858</v>
+        <v>39.72753026997609</v>
       </c>
       <c r="C198" t="n">
-        <v>20.78620575014093</v>
+        <v>40.46962366803537</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>social distancing</t>
+          <t>ur</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5.919145233529949</v>
+        <v>38.77993659433852</v>
       </c>
       <c r="C199" t="n">
-        <v>6.607911624292071</v>
+        <v>39.50606179613153</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>road tax</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5.9170937520185</v>
+        <v>37.82723127477757</v>
       </c>
       <c r="C200" t="n">
-        <v>6.607837332286288</v>
+        <v>38.54223589087155</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>excuse increase</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>16.04748727259443</v>
+        <v>36.86579820165135</v>
       </c>
       <c r="C201" t="n">
-        <v>17.92859034557197</v>
+        <v>37.578394955339</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>increase cost</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>5.910269073267274</v>
+        <v>36.8638947347233</v>
       </c>
       <c r="C202" t="n">
-        <v>6.607611480679044</v>
+        <v>37.57834252179373</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>coronavirus</t>
+          <t>publish</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>5.899105216098315</v>
+        <v>36.86347172356381</v>
       </c>
       <c r="C203" t="n">
-        <v>6.607323155557901</v>
+        <v>37.57827906315803</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>com 2021</t>
+          <t>award</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4.974007693218615</v>
+        <v>36.86066573940142</v>
       </c>
       <c r="C204" t="n">
-        <v>5.660553512633895</v>
+        <v>37.57823377109153</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>com watch</t>
+          <t>protest</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4.973943042325258</v>
+        <v>35.90463574548312</v>
       </c>
       <c r="C205" t="n">
-        <v>5.660551337022126</v>
+        <v>36.61448762469331</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>youtube</t>
+          <t>rail operator</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4.973943042325258</v>
+        <v>34.94096077108121</v>
       </c>
       <c r="C206" t="n">
-        <v>5.660551337022126</v>
+        <v>35.65055361684526</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>youtube com</t>
+          <t>mr khaw</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4.973943042325258</v>
+        <v>34.93809025572977</v>
       </c>
       <c r="C207" t="n">
-        <v>5.660551337022126</v>
+        <v>35.65050004430088</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>mrt fare</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4.973190336435668</v>
+        <v>279.1515361889107</v>
       </c>
       <c r="C208" t="n">
-        <v>5.66052187710422</v>
+        <v>288.9180448510724</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>twitter</t>
+          <t>sbs transit</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4.973190336435668</v>
+        <v>184.5350381192525</v>
       </c>
       <c r="C209" t="n">
-        <v>5.66052187710422</v>
+        <v>193.6228137535377</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>twitter com</t>
+          <t>hike</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>4.973190336435668</v>
+        <v>313.3950905034656</v>
       </c>
       <c r="C210" t="n">
-        <v>5.66052187710422</v>
+        <v>332.9904319403387</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>situation</t>
+          <t>taxis</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4.971150972837675</v>
+        <v>111.9097778298529</v>
       </c>
       <c r="C211" t="n">
-        <v>5.660446181129754</v>
+        <v>116.5677457614227</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>profit</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4.966064840385541</v>
+        <v>495.9578313543074</v>
       </c>
       <c r="C212" t="n">
-        <v>5.660347779779053</v>
+        <v>538.0252199975728</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>dorm</t>
+          <t>operator</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4.963290544224719</v>
+        <v>292.8589257559013</v>
       </c>
       <c r="C213" t="n">
-        <v>5.660152140280374</v>
+        <v>318.6014644645176</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>operating</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4.955734590152674</v>
+        <v>164.029700598908</v>
       </c>
       <c r="C214" t="n">
-        <v>5.659837120494139</v>
+        <v>175.2788333283877</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>html</t>
+          <t>transit</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.867406852798442</v>
+        <v>213.7746979266542</v>
       </c>
       <c r="C215" t="n">
-        <v>8.478571928526765</v>
+        <v>231.0478066235646</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>salary</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>51.78445319586711</v>
+        <v>208.4986076668131</v>
       </c>
       <c r="C216" t="n">
-        <v>66.69919978832533</v>
+        <v>225.1996027060716</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>vaccine</t>
+          <t>affordable</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>65.90234170823435</v>
+        <v>103.1574834340029</v>
       </c>
       <c r="C217" t="n">
-        <v>88.15330273438785</v>
+        <v>108.8423936767458</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>need increase</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>34.36961086300728</v>
+        <v>85.56034692728248</v>
       </c>
       <c r="C218" t="n">
-        <v>46.10998976166158</v>
+        <v>89.58615042535033</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>hear</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>5.584764755388727</v>
+        <v>87.24925057281044</v>
       </c>
       <c r="C219" t="n">
-        <v>7.508082270126371</v>
+        <v>91.51078985378493</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>pfizer</t>
+          <t>fare hike</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>6.872510724112154</v>
+        <v>207.9255998481918</v>
       </c>
       <c r="C220" t="n">
-        <v>9.380478205491405</v>
+        <v>226.9725930889672</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>expensive</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>43.49439109722552</v>
+        <v>143.7815113529353</v>
       </c>
       <c r="C221" t="n">
-        <v>60.19161611279086</v>
+        <v>155.9869692451685</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>6.741428986982005</v>
+        <v>109.6916483668877</v>
       </c>
       <c r="C222" t="n">
-        <v>9.375724588213293</v>
+        <v>117.427856786588</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>bonus</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4.688212211112025</v>
+        <v>100.3005923651251</v>
       </c>
       <c r="C223" t="n">
-        <v>6.57630259000814</v>
+        <v>106.9021321891137</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>5.928820252935198</v>
+        <v>2146.314020164141</v>
       </c>
       <c r="C224" t="n">
-        <v>8.454428061446588</v>
+        <v>2705.280659002383</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>us</t>
+          <t>public</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>7.803778552519951</v>
+        <v>1236.289300929804</v>
       </c>
       <c r="C225" t="n">
-        <v>12.19503728292847</v>
+        <v>1506.882587679508</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>singapore</t>
+          <t>public transport</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>19.68348913865511</v>
+        <v>932.0947141845178</v>
       </c>
       <c r="C226" t="n">
-        <v>30.90953147936401</v>
+        <v>1137.893983218011</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>6.679228317095904</v>
+        <v>528.42768223937</v>
       </c>
       <c r="C227" t="n">
-        <v>11.20406217161591</v>
+        <v>625.9751972197053</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>reaction</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.789238958433407</v>
+        <v>190.6273030590872</v>
       </c>
       <c r="C228" t="n">
-        <v>6.52432193834446</v>
+        <v>211.695546267897</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>home</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4.784216178700524</v>
+        <v>127.0347562156705</v>
       </c>
       <c r="C229" t="n">
-        <v>8.401852244232945</v>
+        <v>137.6933697903536</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>china</t>
+          <t>government</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>5.941141739449632</v>
+        <v>465.414876644072</v>
       </c>
       <c r="C230" t="n">
-        <v>11.18562733267123</v>
+        <v>558.2763130532344</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>review</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5.842431975068295</v>
+        <v>116.3612223744132</v>
       </c>
       <c r="C231" t="n">
-        <v>11.16741669830546</v>
+        <v>126.055731349063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>9.854059290047561</v>
+        <v>193.3740818398886</v>
       </c>
       <c r="C232" t="n">
-        <v>34.22362201725175</v>
+        <v>218.1848964929794</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fare increase</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8.454783379575911</v>
+        <v>479.7913999165078</v>
       </c>
       <c r="C233" t="n">
-        <v>24.94552774238083</v>
+        <v>582.6841919004705</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>say</t>
+          <t>citizen</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8.646746370365781</v>
+        <v>235.3931769137425</v>
       </c>
       <c r="C234" t="n">
-        <v>31.39433597632108</v>
+        <v>270.1209693610658</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>erp</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>7.84358233946514</v>
+        <v>169.4335384524333</v>
       </c>
       <c r="C235" t="n">
-        <v>31.39744186197944</v>
+        <v>190.2935441346298</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>mask</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>8.27426472520218</v>
+        <v>1459.235960056762</v>
       </c>
       <c r="C236" t="n">
-        <v>55.96776886582266</v>
+        <v>1981.502665484615</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>fare</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>5.812087787818614</v>
+        <v>2938.482874238358</v>
       </c>
       <c r="C237" t="n">
-        <v>31.33141845489742</v>
+        <v>4278.77063160196</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>price</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>27.58188089384197</v>
+        <v>381.5571948040845</v>
       </c>
       <c r="C238" t="n">
-        <v>28.29730600098302</v>
+        <v>465.0052906021604</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>26.66699839109905</v>
+        <v>642.5219921204599</v>
       </c>
       <c r="C239" t="n">
-        <v>27.38507693961559</v>
+        <v>830.7060820196624</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>24.85217682502161</v>
+        <v>699.0019241888463</v>
       </c>
       <c r="C240" t="n">
-        <v>25.5599816651081</v>
+        <v>932.9151462544258</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>wear</t>
+          <t>transport fare</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>16.64765305438743</v>
+        <v>366.9688716517058</v>
       </c>
       <c r="C241" t="n">
-        <v>17.3476453364562</v>
+        <v>458.6070519657549</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>9.335322191627053</v>
+        <v>795.7432367067712</v>
       </c>
       <c r="C242" t="n">
-        <v>10.04824186446238</v>
+        <v>1126.45685724597</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>million</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>8.43416785864412</v>
+        <v>313.4142531284534</v>
       </c>
       <c r="C243" t="n">
-        <v>9.135585366177564</v>
+        <v>398.4586736568251</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>face</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>8.427133640985964</v>
+        <v>252.8061469291661</v>
       </c>
       <c r="C244" t="n">
-        <v>9.135446677335549</v>
+        <v>312.3947024235876</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>face shield</t>
+          <t>pap</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>7.52675671756607</v>
+        <v>179.6781228821565</v>
       </c>
       <c r="C245" t="n">
-        <v>8.223016297516358</v>
+        <v>212.2242168746331</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>shield</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>7.52675671756607</v>
+        <v>793.2756951372007</v>
       </c>
       <c r="C246" t="n">
-        <v>8.223016297516358</v>
+        <v>1211.002603770315</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>wear mask</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>7.522565258371034</v>
+        <v>303.1824056079739</v>
       </c>
       <c r="C247" t="n">
-        <v>8.223067983615502</v>
+        <v>394.2901331876351</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>gst</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>7.519863508978441</v>
+        <v>183.7131911364331</v>
       </c>
       <c r="C248" t="n">
-        <v>8.223274007034767</v>
+        <v>220.0814456642061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>vaccinated</t>
+          <t>sbs</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>7.512657842276851</v>
+        <v>305.5516851837917</v>
       </c>
       <c r="C249" t="n">
-        <v>8.223359287581145</v>
+        <v>401.8510327403123</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>ptc</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>6.609519995329686</v>
+        <v>277.4353958704573</v>
       </c>
       <c r="C250" t="n">
-        <v>7.31054595683177</v>
+        <v>361.3048354175437</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>say</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>6.608919065617404</v>
+        <v>430.9715222259816</v>
       </c>
       <c r="C251" t="n">
-        <v>7.31072681990108</v>
+        <v>612.4660629511319</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>infection</t>
+          <t>high</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>6.604389333814522</v>
+        <v>401.0251503823553</v>
       </c>
       <c r="C252" t="n">
-        <v>7.310735757394191</v>
+        <v>563.087704854212</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>increase fare</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>6.596348232634707</v>
+        <v>463.1308492112069</v>
       </c>
       <c r="C253" t="n">
-        <v>7.31072447375452</v>
+        <v>671.5012292872634</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>come</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>5.70029087235513</v>
+        <v>308.7849830929513</v>
       </c>
       <c r="C254" t="n">
-        <v>6.398134972182721</v>
+        <v>414.6971924349801</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>make</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5.690097937516398</v>
+        <v>551.5292867774582</v>
       </c>
       <c r="C255" t="n">
-        <v>6.39813955291024</v>
+        <v>851.9078384051311</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0001f605</t>
+          <t>mrt</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>5.683519802743265</v>
+        <v>827.0752842670963</v>
       </c>
       <c r="C256" t="n">
-        <v>6.398312792029379</v>
+        <v>1438.00199090357</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>sure</t>
+          <t>company</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4.758017355026281</v>
+        <v>315.0485824294797</v>
       </c>
       <c r="C257" t="n">
-        <v>5.486124270354965</v>
+        <v>446.9918075574043</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>20.95869512040672</v>
+        <v>806.7184411925194</v>
       </c>
       <c r="C258" t="n">
-        <v>24.76122924088707</v>
+        <v>1479.896325272496</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>mask</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>47.22993686889296</v>
+        <v>289.3558157243268</v>
       </c>
       <c r="C259" t="n">
-        <v>55.96776886582266</v>
+        <v>411.0743927064116</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>mention</t>
+          <t>people</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>9.202945200358851</v>
+        <v>399.5286747907176</v>
       </c>
       <c r="C260" t="n">
-        <v>10.97280996471755</v>
+        <v>629.1598070689773</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>need</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>7.4268228103392</v>
+        <v>414.2018625356948</v>
       </c>
       <c r="C261" t="n">
-        <v>9.147473948114282</v>
+        <v>664.8821200230215</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>use</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>6.629310954944185</v>
+        <v>340.2657445562921</v>
       </c>
       <c r="C262" t="n">
-        <v>8.233493319919454</v>
+        <v>513.4860208224267</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>also</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>15.27936865062567</v>
+        <v>365.2211445998706</v>
       </c>
       <c r="C263" t="n">
-        <v>19.16479307580179</v>
+        <v>569.793523355097</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>last</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>11.64722886623113</v>
+        <v>197.4875527324101</v>
       </c>
       <c r="C264" t="n">
-        <v>14.66067594062996</v>
+        <v>253.3440511183142</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>15.98191917320445</v>
+        <v>288.07279124199</v>
       </c>
       <c r="C265" t="n">
-        <v>21.04828480574829</v>
+        <v>432.7327797681</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>actually</t>
+          <t>take</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>7.292951282845549</v>
+        <v>406.3273375051112</v>
       </c>
       <c r="C266" t="n">
-        <v>10.09776261344085</v>
+        <v>734.2111229697846</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>flu</t>
+          <t>system</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>15.10817114225452</v>
+        <v>327.3743265861108</v>
       </c>
       <c r="C267" t="n">
-        <v>21.05855051637408</v>
+        <v>538.684776054286</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>smrt</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>5.707953971943803</v>
+        <v>375.4054073225018</v>
       </c>
       <c r="C268" t="n">
-        <v>8.244539391465061</v>
+        <v>682.3471413936228</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>mandate</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4.305624233079552</v>
+        <v>835.174807364335</v>
       </c>
       <c r="C269" t="n">
-        <v>6.451611796878418</v>
+        <v>2538.756291680055</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>4.816787332254945</v>
+        <v>337.8237277668317</v>
       </c>
       <c r="C270" t="n">
-        <v>7.355230390767891</v>
+        <v>599.5262635716595</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mutate</t>
+          <t>raise</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4.784458237009566</v>
+        <v>239.4881240532374</v>
       </c>
       <c r="C271" t="n">
-        <v>7.380626460539438</v>
+        <v>340.4122503212828</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>8.234810946322998</v>
+        <v>240.6635746261272</v>
       </c>
       <c r="C272" t="n">
-        <v>13.68620050735288</v>
+        <v>348.7380451188669</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>3.876174934593646</v>
+        <v>244.1716472815762</v>
       </c>
       <c r="C273" t="n">
-        <v>6.468028070246807</v>
+        <v>366.0955138222316</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>much</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>6.60944258136994</v>
+        <v>235.0538640164357</v>
       </c>
       <c r="C274" t="n">
-        <v>11.10051058130496</v>
+        <v>346.017792028594</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>shot</t>
+          <t>still</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>4.368091239832635</v>
+        <v>298.5989364094283</v>
       </c>
       <c r="C275" t="n">
-        <v>7.396238136308154</v>
+        <v>628.9271951793797</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>wonder</t>
+          <t>want</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>5.460144231098523</v>
+        <v>248.3162133428252</v>
       </c>
       <c r="C276" t="n">
-        <v>9.24839880918233</v>
+        <v>592.6262613255417</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>say</t>
+          <t>service</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>18.02415809634437</v>
+        <v>252.5630953499548</v>
       </c>
       <c r="C277" t="n">
-        <v>31.39433597632108</v>
+        <v>831.0758141323799</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>contactless</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>16.99583898982231</v>
+        <v>55.83654770852571</v>
       </c>
       <c r="C278" t="n">
-        <v>30.12490132389416</v>
+        <v>56.55173538205381</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>lockdown</t>
+          <t>simplygo</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>5.702735823996342</v>
+        <v>47.35447218274319</v>
       </c>
       <c r="C279" t="n">
-        <v>10.18774105322841</v>
+        <v>48.06995885008551</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>13.8766679329668</v>
+        <v>45.47176218406272</v>
       </c>
       <c r="C280" t="n">
-        <v>24.94552774238083</v>
+        <v>46.18509578425522</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>payer</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>17.20825257456138</v>
+        <v>46.39435896064836</v>
       </c>
       <c r="C281" t="n">
-        <v>31.33141845489742</v>
+        <v>47.12793761610627</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>tax payer</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>4.536754349704232</v>
+        <v>46.39435896064836</v>
       </c>
       <c r="C282" t="n">
-        <v>8.337547947430615</v>
+        <v>47.12793761610627</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>immunity</t>
+          <t>visa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4.43221093001135</v>
+        <v>33.21783527421278</v>
       </c>
       <c r="C283" t="n">
-        <v>8.285911430910343</v>
+        <v>33.93366163288263</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>variant</t>
+          <t>assistance</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>5.440519448964012</v>
+        <v>33.20983859924647</v>
       </c>
       <c r="C284" t="n">
-        <v>10.19760425479584</v>
+        <v>33.9337957784805</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>datum</t>
+          <t>east</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3.859933551926262</v>
+        <v>32.25765757392097</v>
       </c>
       <c r="C285" t="n">
-        <v>7.342993785389204</v>
+        <v>32.99151774389848</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2.675297630110415</v>
+        <v>30.39304290882156</v>
       </c>
       <c r="C286" t="n">
-        <v>5.480842682227448</v>
+        <v>31.10637651064674</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>8.897728138012992</v>
+        <v>29.43420718696452</v>
       </c>
       <c r="C287" t="n">
-        <v>18.23905698960216</v>
+        <v>30.164257739524</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>larkin</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>22.97177263430166</v>
+        <v>25.68077757402423</v>
       </c>
       <c r="C288" t="n">
-        <v>47.39991943951988</v>
+        <v>26.39428050596765</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>45 min</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>15.58834732805625</v>
+        <v>23.79456339390151</v>
       </c>
       <c r="C289" t="n">
-        <v>34.22362201725175</v>
+        <v>24.50945099417113</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>concessionary</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>10.40531719965056</v>
+        <v>22.84569097952102</v>
       </c>
       <c r="C290" t="n">
-        <v>30.07501851793927</v>
+        <v>23.56711715328388</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>jb</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>14.43829626447224</v>
+        <v>20.96843433576825</v>
       </c>
       <c r="C291" t="n">
-        <v>66.69919978832533</v>
+        <v>21.6821862745594</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>5.865214317047732</v>
+        <v>20.96279711033276</v>
       </c>
       <c r="C292" t="n">
-        <v>13.68052950174495</v>
+        <v>21.68230237598681</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>6.695579099390297</v>
+        <v>20.96211860727468</v>
       </c>
       <c r="C293" t="n">
-        <v>28.64165593253715</v>
+        <v>21.68228603220108</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>concessionary fare</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>6.20964928410624</v>
+        <v>20.96170867421073</v>
       </c>
       <c r="C294" t="n">
-        <v>27.54391888476554</v>
+        <v>21.68226287125933</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>original citizen</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>5.058703931016573</v>
+        <v>20.01296498101753</v>
       </c>
       <c r="C295" t="n">
-        <v>14.76349307381266</v>
+        <v>20.73995226043334</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>burn</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>5.20879348229231</v>
+        <v>20.00844546521411</v>
       </c>
       <c r="C296" t="n">
-        <v>24.67590643125844</v>
+        <v>20.74011032207204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Topic4</t>
+          <t>Topic3</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>owner</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4.862588853323719</v>
+        <v>19.99702854940578</v>
       </c>
       <c r="C297" t="n">
-        <v>11.16741669830546</v>
+        <v>20.74039435214981</v>
       </c>
       <c r="D297" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>contactless card</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>19.08329904193572</v>
+      </c>
+      <c r="C298" t="n">
+        <v>19.7973427293988</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>financial assistance</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>19.07141671485311</v>
+      </c>
+      <c r="C299" t="n">
+        <v>19.79758315239146</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>jurong</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>19.06328165195211</v>
+      </c>
+      <c r="C300" t="n">
+        <v>19.79762382104232</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>rd</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>18.1413470109358</v>
+      </c>
+      <c r="C301" t="n">
+        <v>18.85492248348323</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>convenient</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>18.12978519866078</v>
+      </c>
+      <c r="C302" t="n">
+        <v>18.85509814046155</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>transitlink</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>18.1267256044108</v>
+      </c>
+      <c r="C303" t="n">
+        <v>18.85508405999666</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>spite</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>17.1927836174655</v>
+      </c>
+      <c r="C304" t="n">
+        <v>17.91253751982684</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>queen</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>17.18865797840488</v>
+      </c>
+      <c r="C305" t="n">
+        <v>17.91273616280205</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>idle</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>16.25219255855096</v>
+      </c>
+      <c r="C306" t="n">
+        <v>16.97015182872191</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>money build</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>16.2480886601312</v>
+      </c>
+      <c r="C307" t="n">
+        <v>16.97027422363102</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>diploma</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>16.24531612985318</v>
+      </c>
+      <c r="C308" t="n">
+        <v>16.97022191673362</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>diploma student</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>16.24531612985318</v>
+      </c>
+      <c r="C309" t="n">
+        <v>16.97022191673362</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>car owner</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>16.24311473319796</v>
+      </c>
+      <c r="C310" t="n">
+        <v>16.97038773852116</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>payer money</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>16.23192443542738</v>
+      </c>
+      <c r="C311" t="n">
+        <v>16.9705679051368</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>160a</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C312" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>170 way</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C313" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C314" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>bus queen</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C315" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>iso</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C316" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>massive underop</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C317" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>much variable</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C318" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>overrule</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C319" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>pirate</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C320" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>pirate bus</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C321" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>queen st</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C322" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>run 170</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C323" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>sbst ops</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C324" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>underop</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>15.3143236303108</v>
+      </c>
+      <c r="C325" t="n">
+        <v>16.02765723704949</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>15.31432256250385</v>
+      </c>
+      <c r="C326" t="n">
+        <v>16.02765724083276</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>air hub</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>15.31432256250385</v>
+      </c>
+      <c r="C327" t="n">
+        <v>16.02765724083276</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ops</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>53.02337035557182</v>
+      </c>
+      <c r="C328" t="n">
+        <v>57.52875100419075</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>jam</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>67.63702512176704</v>
+      </c>
+      <c r="C329" t="n">
+        <v>75.46515575272237</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>return leg</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>25.69904074923854</v>
+      </c>
+      <c r="C330" t="n">
+        <v>29.2474185095818</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>36.77698476652655</v>
+      </c>
+      <c r="C331" t="n">
+        <v>46.26527019044713</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>32.10135849769027</v>
+      </c>
+      <c r="C332" t="n">
+        <v>41.67038003387943</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>sbst</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>40.84364109984406</v>
+      </c>
+      <c r="C333" t="n">
+        <v>59.59040681203555</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>planners</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>22.85884316914875</v>
+      </c>
+      <c r="C334" t="n">
+        <v>27.3713777598879</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>manage</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>59.42071236130474</v>
+      </c>
+      <c r="C335" t="n">
+        <v>100.5119366516392</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>land transport</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>31.61872009133429</v>
+      </c>
+      <c r="C336" t="n">
+        <v>43.60943894166506</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>19.07124572821324</v>
+      </c>
+      <c r="C337" t="n">
+        <v>21.72543179098648</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>leg</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>40.82640668394982</v>
+      </c>
+      <c r="C338" t="n">
+        <v>64.43428631103139</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>traffic</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>42.54546569041324</v>
+      </c>
+      <c r="C339" t="n">
+        <v>70.98050701816943</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>lta</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>157.8907918768273</v>
+      </c>
+      <c r="C340" t="n">
+        <v>531.8687430415927</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>land</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>43.11212952835542</v>
+      </c>
+      <c r="C341" t="n">
+        <v>75.15683629566905</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>26.25921106099197</v>
+      </c>
+      <c r="C342" t="n">
+        <v>35.8999922701212</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>payment</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>31.10924156909057</v>
+      </c>
+      <c r="C343" t="n">
+        <v>47.26855987037207</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>27.761979874682</v>
+      </c>
+      <c r="C344" t="n">
+        <v>39.79486326617387</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>84.51922582127523</v>
+      </c>
+      <c r="C345" t="n">
+        <v>259.9927873795994</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>railway</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>23.0723348361999</v>
+      </c>
+      <c r="C346" t="n">
+        <v>30.22280305229082</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>87.59522107208942</v>
+      </c>
+      <c r="C347" t="n">
+        <v>280.0391626385892</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>118.1713803813552</v>
+      </c>
+      <c r="C348" t="n">
+        <v>483.0039379387819</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>42.3168984651248</v>
+      </c>
+      <c r="C349" t="n">
+        <v>85.50129838499127</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>28.30929160452858</v>
+      </c>
+      <c r="C350" t="n">
+        <v>43.37287337195642</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>278.6208005977591</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2538.756291680055</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>63.22054387518497</v>
+      </c>
+      <c r="C352" t="n">
+        <v>205.4592895012807</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>83.31189225875033</v>
+      </c>
+      <c r="C353" t="n">
+        <v>432.7327797681</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>29.12901105713503</v>
+      </c>
+      <c r="C354" t="n">
+        <v>50.14023554111043</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>41.13320186463697</v>
+      </c>
+      <c r="C355" t="n">
+        <v>104.9013571501735</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>fare</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>231.7839741651389</v>
+      </c>
+      <c r="C356" t="n">
+        <v>4278.77063160196</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>69.86753692942051</v>
+      </c>
+      <c r="C357" t="n">
+        <v>324.4462035451572</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>commuter</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>83.59490664166458</v>
+      </c>
+      <c r="C358" t="n">
+        <v>492.9395890513251</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>119.6961313650216</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1126.45685724597</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>143.558260995346</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1981.502665484615</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>85.02277174700184</v>
+      </c>
+      <c r="C361" t="n">
+        <v>628.9271951793797</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>already</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>53.4639198176125</v>
+      </c>
+      <c r="C362" t="n">
+        <v>212.4157395379137</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>keep</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>68.94281643519845</v>
+      </c>
+      <c r="C363" t="n">
+        <v>411.0743927064116</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>40.80093186098048</v>
+      </c>
+      <c r="C364" t="n">
+        <v>116.0704142319278</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>76.16432255597029</v>
+      </c>
+      <c r="C365" t="n">
+        <v>569.793523355097</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>74.41747206753274</v>
+      </c>
+      <c r="C366" t="n">
+        <v>592.6262613255417</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>97.28520722721888</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1506.882587679508</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>69.17566571687992</v>
+      </c>
+      <c r="C368" t="n">
+        <v>629.1598070689773</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>78.69456189449964</v>
+      </c>
+      <c r="C369" t="n">
+        <v>932.9151462544258</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>63.08210161139706</v>
+      </c>
+      <c r="C370" t="n">
+        <v>481.1103792246385</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>singapore</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>67.53647582152321</v>
+      </c>
+      <c r="C371" t="n">
+        <v>599.5262635716595</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>67.45162202787155</v>
+      </c>
+      <c r="C372" t="n">
+        <v>664.8821200230215</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>public transport</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>74.00699454793663</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1137.893983218011</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>66.98178817621945</v>
+      </c>
+      <c r="C374" t="n">
+        <v>831.0758141323799</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>49.50089399918396</v>
+      </c>
+      <c r="C375" t="n">
+        <v>346.017792028594</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>67.95285910212911</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1479.896325272496</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>operate</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>42.40787121575083</v>
+      </c>
+      <c r="C377" t="n">
+        <v>193.1064346368921</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>42.06830978204814</v>
+      </c>
+      <c r="C378" t="n">
+        <v>189.0568858271935</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>pay</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>57.93527873006845</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1211.002603770315</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>41.95778651485132</v>
+      </c>
+      <c r="C380" t="n">
+        <v>191.3788296467785</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>mrt</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>57.27919878487354</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1438.00199090357</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>62.74208873616884</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2705.280659002383</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>48.50875436531709</v>
+      </c>
+      <c r="C383" t="n">
+        <v>536.8010943190289</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>51.18502744683581</v>
+      </c>
+      <c r="C384" t="n">
+        <v>830.7060820196624</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>50.28159509337307</v>
+      </c>
+      <c r="C385" t="n">
+        <v>851.9078384051311</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>45.14730208402332</v>
+      </c>
+      <c r="C386" t="n">
+        <v>398.7157399356767</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>42.8106659953226</v>
+      </c>
+      <c r="C387" t="n">
+        <v>513.4860208224267</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ptc</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>42.22337312205833</v>
+      </c>
+      <c r="C388" t="n">
+        <v>361.3048354175437</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>71.56148208326016</v>
+      </c>
+      <c r="C389" t="n">
+        <v>72.28167127787501</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>captain</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>54.44588231041075</v>
+      </c>
+      <c r="C390" t="n">
+        <v>55.1618125608974</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>bus captain</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>49.69093913785101</v>
+      </c>
+      <c r="C391" t="n">
+        <v>50.40629919993892</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>wanna</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>49.68147555211235</v>
+      </c>
+      <c r="C392" t="n">
+        <v>50.40641781686061</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>43.97562059408876</v>
+      </c>
+      <c r="C393" t="n">
+        <v>44.69978398483182</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>tourist</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>40.17295268232311</v>
+      </c>
+      <c r="C394" t="n">
+        <v>40.8952256803104</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>citizens</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>39.21920507595854</v>
+      </c>
+      <c r="C395" t="n">
+        <v>39.94416959893731</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>38.26653983566069</v>
+      </c>
+      <c r="C396" t="n">
+        <v>38.99311294370384</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>remove</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>38.26581573753919</v>
+      </c>
+      <c r="C397" t="n">
+        <v>38.99317374298715</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>service route</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>32.57515639405501</v>
+      </c>
+      <c r="C398" t="n">
+        <v>33.28641062471522</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>15 min</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>28.76638746195588</v>
+      </c>
+      <c r="C399" t="n">
+        <v>29.48197635611141</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>bus contracting</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>27.81263337073698</v>
+      </c>
+      <c r="C400" t="n">
+        <v>28.53095374258014</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>well service</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>26.86746622941452</v>
+      </c>
+      <c r="C401" t="n">
+        <v>27.57980986768036</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>train reliability</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>26.85180054739491</v>
+      </c>
+      <c r="C402" t="n">
+        <v>27.57975735245667</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>24.96523275446874</v>
+      </c>
+      <c r="C403" t="n">
+        <v>25.67760879382993</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>escalator</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>24.96104511187871</v>
+      </c>
+      <c r="C404" t="n">
+        <v>25.67764892866068</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>24.96030230109099</v>
+      </c>
+      <c r="C405" t="n">
+        <v>25.67764295022051</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>24.00495468194107</v>
+      </c>
+      <c r="C406" t="n">
+        <v>24.72657533288751</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>alot</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>22.0935048245973</v>
+      </c>
+      <c r="C407" t="n">
+        <v>22.8245250976955</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>wanna increase</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>21.15584069132354</v>
+      </c>
+      <c r="C408" t="n">
+        <v>21.87325813378359</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>logic</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>21.14202491313733</v>
+      </c>
+      <c r="C409" t="n">
+        <v>21.87317521755699</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>reform</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>20.21091560919993</v>
+      </c>
+      <c r="C410" t="n">
+        <v>20.92208229964454</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>give way</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>20.21043468427142</v>
+      </c>
+      <c r="C411" t="n">
+        <v>20.92208564684582</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>old folk</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>20.21018716101966</v>
+      </c>
+      <c r="C412" t="n">
+        <v>20.92209196839889</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>caregiver</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>21.12727288012753</v>
+      </c>
+      <c r="C413" t="n">
+        <v>21.87304338810293</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>train frequency</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>20.20612038895516</v>
+      </c>
+      <c r="C414" t="n">
+        <v>20.92214061696783</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>20.19344497241899</v>
+      </c>
+      <c r="C415" t="n">
+        <v>20.92229547718053</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>many people</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>20.18117317712667</v>
+      </c>
+      <c r="C416" t="n">
+        <v>20.92229156631057</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>bay</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>19.25934226294793</v>
+      </c>
+      <c r="C417" t="n">
+        <v>19.97098212059334</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>19.25270308213684</v>
+      </c>
+      <c r="C418" t="n">
+        <v>19.97103031669056</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>comfortable</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>19.25154139627563</v>
+      </c>
+      <c r="C419" t="n">
+        <v>19.9710657470717</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>fare still</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>19.24822506195138</v>
+      </c>
+      <c r="C420" t="n">
+        <v>19.97107855922507</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>maintain train</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>19.24503723169546</v>
+      </c>
+      <c r="C421" t="n">
+        <v>19.97104414293347</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>board bus</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>18.30859913692529</v>
+      </c>
+      <c r="C422" t="n">
+        <v>19.01987895727568</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ex</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>18.30692988904091</v>
+      </c>
+      <c r="C423" t="n">
+        <v>19.01990136137506</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>give seat</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>18.30691336028318</v>
+      </c>
+      <c r="C424" t="n">
+        <v>19.01988603277452</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>pt</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>18.30591904929623</v>
+      </c>
+      <c r="C425" t="n">
+        <v>19.01988858025408</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>mechanic</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>17.35450011532572</v>
+      </c>
+      <c r="C426" t="n">
+        <v>18.06880733029177</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>allowance</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>17.33469446650746</v>
+      </c>
+      <c r="C427" t="n">
+        <v>18.06868966774542</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>drive slowly</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>16.40650604942145</v>
+      </c>
+      <c r="C428" t="n">
+        <v>17.1176738386097</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ez card</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>16.40402439113828</v>
+      </c>
+      <c r="C429" t="n">
+        <v>17.11767525708726</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>16.39400489006814</v>
+      </c>
+      <c r="C430" t="n">
+        <v>17.1178333899608</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>new mrt</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>16.39397920490838</v>
+      </c>
+      <c r="C431" t="n">
+        <v>17.11782099795391</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>service train</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>16.38266929149568</v>
+      </c>
+      <c r="C432" t="n">
+        <v>17.11752245604342</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>cant</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>15.45540465121543</v>
+      </c>
+      <c r="C433" t="n">
+        <v>16.16657173027606</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>basic service</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>15.45403698895314</v>
+      </c>
+      <c r="C434" t="n">
+        <v>16.16658986655172</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>bus late</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>15.45397391862368</v>
+      </c>
+      <c r="C435" t="n">
+        <v>16.1665908071926</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>bus bus</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>15.45359171471956</v>
+      </c>
+      <c r="C436" t="n">
+        <v>16.1665952813939</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>wait long</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>15.45326453044914</v>
+      </c>
+      <c r="C437" t="n">
+        <v>16.16656663905707</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>million train</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>15.45311018563183</v>
+      </c>
+      <c r="C438" t="n">
+        <v>16.16660238030817</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>route</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>129.1883417033028</v>
+      </c>
+      <c r="C439" t="n">
+        <v>135.9497711053451</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>seat</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>118.820449420718</v>
+      </c>
+      <c r="C440" t="n">
+        <v>125.6243670408953</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>187.6516814948097</v>
+      </c>
+      <c r="C441" t="n">
+        <v>233.3806539401673</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>transfer</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>45.49247486017553</v>
+      </c>
+      <c r="C442" t="n">
+        <v>51.42678762267521</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>peak hour</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>106.2320210191413</v>
+      </c>
+      <c r="C443" t="n">
+        <v>130.0093494422433</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>folk</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>28.33592589984509</v>
+      </c>
+      <c r="C444" t="n">
+        <v>31.41573117154494</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>peak</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>171.5102687160834</v>
+      </c>
+      <c r="C445" t="n">
+        <v>227.7563515328436</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>ride</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>168.1746373184049</v>
+      </c>
+      <c r="C446" t="n">
+        <v>230.7626965645125</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>bus route</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>41.7862707042503</v>
+      </c>
+      <c r="C447" t="n">
+        <v>48.44923089557831</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>505.7165465662301</v>
+      </c>
+      <c r="C448" t="n">
+        <v>831.0758141323799</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1305.599876599345</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2538.756291680055</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>101.5064090484196</v>
+      </c>
+      <c r="C450" t="n">
+        <v>135.9118618836404</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>train ride</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>31.62067532362161</v>
+      </c>
+      <c r="C451" t="n">
+        <v>36.10501569634435</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>taipei</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>40.55330623252544</v>
+      </c>
+      <c r="C452" t="n">
+        <v>48.60152781030131</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>quite</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>27.6987082960703</v>
+      </c>
+      <c r="C453" t="n">
+        <v>31.35788673700252</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>157.7599793991879</v>
+      </c>
+      <c r="C454" t="n">
+        <v>269.5200241359078</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>bus ride</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>37.75516185758563</v>
+      </c>
+      <c r="C455" t="n">
+        <v>46.52762565199669</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>47.35608879367557</v>
+      </c>
+      <c r="C456" t="n">
+        <v>62.00479140907672</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>bus service</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>85.31926064922814</v>
+      </c>
+      <c r="C457" t="n">
+        <v>132.4140127241199</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>53.16377572394455</v>
+      </c>
+      <c r="C458" t="n">
+        <v>72.46509449138065</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>minute</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>32.37867889537964</v>
+      </c>
+      <c r="C459" t="n">
+        <v>38.9391761951936</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>contracting</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>32.97295875564379</v>
+      </c>
+      <c r="C460" t="n">
+        <v>39.88712673490091</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>170.7131828264799</v>
+      </c>
+      <c r="C461" t="n">
+        <v>345.6652274830139</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>80.45464619098395</v>
+      </c>
+      <c r="C462" t="n">
+        <v>129.0336276979763</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>172.7112217939556</v>
+      </c>
+      <c r="C463" t="n">
+        <v>358.1652623872878</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>225.3494661358126</v>
+      </c>
+      <c r="C464" t="n">
+        <v>536.8010943190289</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>67.82862263883418</v>
+      </c>
+      <c r="C465" t="n">
+        <v>107.0336115370623</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>crowded</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>27.76484863523627</v>
+      </c>
+      <c r="C466" t="n">
+        <v>32.28374977572346</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>99.8188986694815</v>
+      </c>
+      <c r="C467" t="n">
+        <v>187.0788848688345</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>238.7197391560488</v>
+      </c>
+      <c r="C468" t="n">
+        <v>628.9271951793797</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>131.9376075411841</v>
+      </c>
+      <c r="C469" t="n">
+        <v>280.0391626385892</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>223.8575312672784</v>
+      </c>
+      <c r="C470" t="n">
+        <v>592.6262613255417</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>420.3530035293752</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1479.896325272496</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>mrt</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>408.039157873335</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1438.00199090357</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>fare</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>820.3425993517566</v>
+      </c>
+      <c r="C473" t="n">
+        <v>4278.77063160196</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>pay</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>340.2796993411229</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1211.002603770315</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>bus fare</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>143.9964210634531</v>
+      </c>
+      <c r="C475" t="n">
+        <v>377.6346285349815</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>station</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>120.2935840901649</v>
+      </c>
+      <c r="C476" t="n">
+        <v>293.241024740736</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>72.40720525642016</v>
+      </c>
+      <c r="C477" t="n">
+        <v>133.9619650276021</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>91.02690141795776</v>
+      </c>
+      <c r="C478" t="n">
+        <v>193.1688564277105</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>87.45724722162403</v>
+      </c>
+      <c r="C479" t="n">
+        <v>185.1110741149485</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>129.9414659207406</v>
+      </c>
+      <c r="C480" t="n">
+        <v>361.784687553798</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>117.1718749408338</v>
+      </c>
+      <c r="C481" t="n">
+        <v>309.213689376377</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>195.5058176403263</v>
+      </c>
+      <c r="C482" t="n">
+        <v>734.2111229697846</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>421.6235396113866</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2705.280659002383</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>151.3444532450269</v>
+      </c>
+      <c r="C484" t="n">
+        <v>483.0039379387819</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>132.93411942832</v>
+      </c>
+      <c r="C485" t="n">
+        <v>398.7157399356767</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>177.6962349691384</v>
+      </c>
+      <c r="C486" t="n">
+        <v>664.8821200230215</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>increase fare</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>173.5451408905465</v>
+      </c>
+      <c r="C487" t="n">
+        <v>671.5012292872634</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>smrt</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>167.2905302097738</v>
+      </c>
+      <c r="C488" t="n">
+        <v>682.3471413936228</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>117.6923993468736</v>
+      </c>
+      <c r="C489" t="n">
+        <v>358.1227356393558</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>commuter</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>132.3888590309812</v>
+      </c>
+      <c r="C490" t="n">
+        <v>492.9395890513251</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>92.0174638084836</v>
+      </c>
+      <c r="C491" t="n">
+        <v>237.7393547337019</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>70.41598482253366</v>
+      </c>
+      <c r="C492" t="n">
+        <v>137.9722888314864</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>95.30726596835548</v>
+      </c>
+      <c r="C493" t="n">
+        <v>266.3535174144052</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>103.3225586593774</v>
+      </c>
+      <c r="C494" t="n">
+        <v>324.4462035451572</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>119.4289416153539</v>
+      </c>
+      <c r="C495" t="n">
+        <v>481.1103792246385</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>168.6010454334782</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1126.45685724597</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>131.4558840817547</v>
+      </c>
+      <c r="C497" t="n">
+        <v>629.1598070689773</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>143.7034914958763</v>
+      </c>
+      <c r="C498" t="n">
+        <v>851.9078384051311</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>193.4007308874321</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1981.502665484615</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>118.2874021156025</v>
+      </c>
+      <c r="C500" t="n">
+        <v>538.684776054286</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>116.5284274948693</v>
+      </c>
+      <c r="C501" t="n">
+        <v>563.087704854212</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>131.1787171742596</v>
+      </c>
+      <c r="C502" t="n">
+        <v>830.7060820196624</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>108.4315858456909</v>
+      </c>
+      <c r="C503" t="n">
+        <v>569.793523355097</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>lta</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>102.3401936353953</v>
+      </c>
+      <c r="C504" t="n">
+        <v>531.8687430415927</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>98.15948570788179</v>
+      </c>
+      <c r="C505" t="n">
+        <v>513.4860208224267</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>95.92376595498816</v>
+      </c>
+      <c r="C506" t="n">
+        <v>446.9918075574043</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>103.0621854632803</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1506.882587679508</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>fare increase</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>95.29666043879406</v>
+      </c>
+      <c r="C508" t="n">
+        <v>582.6841919004705</v>
+      </c>
+      <c r="D508" t="inlineStr">
         <is>
           <t>Topic4</t>
         </is>

--- a/output/Keywords.xlsx
+++ b/output/Keywords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,14 +391,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>covid 19</t>
+          <t>2130451</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -409,14 +409,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>side effect</t>
+          <t>12130520147</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -427,14 +427,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>take vaccine</t>
+          <t>208537</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -445,14 +445,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facebook com</t>
+          <t>203150</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -463,14 +463,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>face shield</t>
+          <t>2110396</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -481,14 +481,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>public health</t>
+          <t>201076</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -499,14 +499,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>many people</t>
+          <t>207203</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,14 +517,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>social distancing</t>
+          <t>19074</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -535,14 +535,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>death rate</t>
+          <t>2110116</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>wear mask</t>
+          <t>201473</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -571,14 +571,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>com news</t>
+          <t>19518</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -589,14 +589,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>covid vaccine</t>
+          <t>2130043</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,14 +607,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021 04</t>
+          <t>19137</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>health measure</t>
+          <t>208433</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -643,14 +643,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>get infect</t>
+          <t>203112</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>public health measure</t>
+          <t>2011027</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mask wear</t>
+          <t>201048</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -697,14 +697,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mask mandate</t>
+          <t>19293</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -715,14 +715,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>209088</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -733,14 +733,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>com 2021</t>
+          <t>207053</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>com 2021 04</t>
+          <t>2010468</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -769,14 +769,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>long time</t>
+          <t>2012342</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>com watch</t>
+          <t>201431</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>youtube com</t>
+          <t>201052</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>youtube com watch</t>
+          <t>209466</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,14 +841,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>twitter com</t>
+          <t>19126</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -859,14 +859,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>straitstimes com</t>
+          <t>2010267</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -877,428 +877,428 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>covid 19</t>
+          <t>2010233</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25.90975269780972</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>26.51828872217859</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>wear mask</t>
+          <t>209035</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.361667428728717</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>7.957265388962418</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>com news</t>
+          <t>208033</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.354415202239811</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>7.957239503851866</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>201085</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.59332022802375</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>6.189552900306544</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>youtube com watch</t>
+          <t>209153</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.71255808334671</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>5.305677600035576</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>com watch</t>
+          <t>203289</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.71255808334671</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>5.305677600035576</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>youtube com</t>
+          <t>201063</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.71255808334671</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>5.305677600035576</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>twitter com</t>
+          <t>19263</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.709433557930643</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>5.305695051188614</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>straitstimes com</t>
+          <t>209281</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.10714542553485</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>7.014240022162841</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>com 2021 04</t>
+          <t>209511</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2975061971179504</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>5.228085493509714</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>com 2021</t>
+          <t>19536</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2975061971179504</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>5.228085493509714</v>
+        <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>long time</t>
+          <t>2012467</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2965976190391107</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>5.228142812461157</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mask mandate</t>
+          <t>2012104</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3038474346910889</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>5.420842150313091</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mask wear</t>
+          <t>2130054</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2961878792140571</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>5.421050991031464</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>public health measure</t>
+          <t>2110422</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2951511774035177</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>5.421034984394716</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>get infect</t>
+          <t>209411</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2962090799162342</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>6.327886314638197</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>health measure</t>
+          <t>2110252</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2953490274104177</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>6.327992713261978</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021 04</t>
+          <t>208082</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3031490435148361</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>6.964855911348827</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>covid vaccine</t>
+          <t>203223</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3018458533074861</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>6.964862648876571</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>social distancing</t>
+          <t>2010533</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.296224974365469</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>7.234961418319313</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>public health</t>
+          <t>19251</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3175349024645329</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>8.141344224131503</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>death rate</t>
+          <t>19099</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2960566323334039</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>7.835278686282163</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>many people</t>
+          <t>2130212</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2964479158408324</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>8.701434608400611</v>
+        <v>1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Topic1</t>
+          <t>Overall Transcript</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>face shield</t>
+          <t>2130451</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2965603104258355</v>
+        <v>0.6640637722796969</v>
       </c>
       <c r="C52" t="n">
-        <v>9.569767822815495</v>
+        <v>1.000000078310698</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>facebook com</t>
+          <t>12130520147</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2962517726583712</v>
+        <v>0.664063770341925</v>
       </c>
       <c r="C53" t="n">
-        <v>9.955829112396614</v>
+        <v>1.000000078310698</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1327,14 +1327,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>side effect</t>
+          <t>208537</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2960054823039973</v>
+        <v>0.6640637699371942</v>
       </c>
       <c r="C54" t="n">
-        <v>10.86259456843379</v>
+        <v>1.000000078310698</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1345,14 +1345,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>take vaccine</t>
+          <t>203150</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2997227917236759</v>
+        <v>0.664063769280795</v>
       </c>
       <c r="C55" t="n">
-        <v>11.30663565711747</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1363,970 +1363,2626 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>take vaccine</t>
+          <t>2110396</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10.69849697615574</v>
+        <v>0.6640637669133139</v>
       </c>
       <c r="C56" t="n">
-        <v>11.30663565711747</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>face shield</t>
+          <t>201076</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8.968576575486047</v>
+        <v>0.6640637663139509</v>
       </c>
       <c r="C57" t="n">
-        <v>9.569767822815495</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>many people</t>
+          <t>207203</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8.100490009109249</v>
+        <v>0.6640637662102724</v>
       </c>
       <c r="C58" t="n">
-        <v>8.701434608400611</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>death rate</t>
+          <t>19074</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7.183627352944161</v>
+        <v>0.6640637657055384</v>
       </c>
       <c r="C59" t="n">
-        <v>7.835278686282163</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>covid vaccine</t>
+          <t>2110116</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6.358890552777652</v>
+        <v>0.6640637654669138</v>
       </c>
       <c r="C60" t="n">
-        <v>6.964862648876571</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021 04</t>
+          <t>201473</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.35827647614548</v>
+        <v>0.6640637649477642</v>
       </c>
       <c r="C61" t="n">
-        <v>6.964855911348827</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>com 2021 04</t>
+          <t>19518</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.627623418621343</v>
+        <v>0.6640637648385572</v>
       </c>
       <c r="C62" t="n">
-        <v>5.228085493509714</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>com 2021</t>
+          <t>2130043</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.627623418621343</v>
+        <v>0.6640637647976292</v>
       </c>
       <c r="C63" t="n">
-        <v>5.228085493509714</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>long time</t>
+          <t>19137</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.626868752605026</v>
+        <v>0.6640637647185794</v>
       </c>
       <c r="C64" t="n">
-        <v>5.228142812461157</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>straitstimes com</t>
+          <t>208433</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.601127896484838</v>
+        <v>0.6640637644892756</v>
       </c>
       <c r="C65" t="n">
-        <v>7.014240022162841</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>twitter com</t>
+          <t>203112</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2915101615925572</v>
+        <v>0.6640637643281878</v>
       </c>
       <c r="C66" t="n">
-        <v>5.305695051188614</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>youtube com watch</t>
+          <t>2011027</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2900670124514486</v>
+        <v>0.6640637640177305</v>
       </c>
       <c r="C67" t="n">
-        <v>5.305677600035576</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>com watch</t>
+          <t>201048</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2900670124514486</v>
+        <v>0.6640637634380168</v>
       </c>
       <c r="C68" t="n">
-        <v>5.305677600035576</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>youtube com</t>
+          <t>19293</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2900670124514486</v>
+        <v>0.6640637628972358</v>
       </c>
       <c r="C69" t="n">
-        <v>5.305677600035576</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>public health measure</t>
+          <t>209088</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2919999620235948</v>
+        <v>0.6640637628308951</v>
       </c>
       <c r="C70" t="n">
-        <v>5.421034984394716</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mask mandate</t>
+          <t>207053</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2912260267468673</v>
+        <v>0.664063762820952</v>
       </c>
       <c r="C71" t="n">
-        <v>5.420842150313091</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>mask wear</t>
+          <t>2010468</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2910311956282048</v>
+        <v>0.6640637627572813</v>
       </c>
       <c r="C72" t="n">
-        <v>5.421050991031464</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>2012342</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2914970571151275</v>
+        <v>0.6640637626488456</v>
       </c>
       <c r="C73" t="n">
-        <v>6.189552900306544</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>get infect</t>
+          <t>201431</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2937432329187778</v>
+        <v>0.664063762638355</v>
       </c>
       <c r="C74" t="n">
-        <v>6.327886314638197</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>health measure</t>
+          <t>201052</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2918568776194254</v>
+        <v>0.6640637624974929</v>
       </c>
       <c r="C75" t="n">
-        <v>6.327992713261978</v>
+        <v>1.000000078310697</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>social distancing</t>
+          <t>209466</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2910687496465365</v>
+        <v>0.6640637623022657</v>
       </c>
       <c r="C76" t="n">
-        <v>7.234961418319313</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>com news</t>
+          <t>19126</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2960478217769785</v>
+        <v>0.6640637622952463</v>
       </c>
       <c r="C77" t="n">
-        <v>7.957239503851866</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>wear mask</t>
+          <t>2010267</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2912058945844025</v>
+        <v>0.6640637621857033</v>
       </c>
       <c r="C78" t="n">
-        <v>7.957265388962418</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>public health</t>
+          <t>2010233</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2914468136546451</v>
+        <v>0.6640637621701568</v>
       </c>
       <c r="C79" t="n">
-        <v>8.141344224131503</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>facebook com</t>
+          <t>209035</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2910958750314754</v>
+        <v>0.6640637621652022</v>
       </c>
       <c r="C80" t="n">
-        <v>9.955829112396614</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>side effect</t>
+          <t>208033</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2955354844293987</v>
+        <v>0.6640637619628548</v>
       </c>
       <c r="C81" t="n">
-        <v>10.86259456843379</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>covid 19</t>
+          <t>201085</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2986902057042378</v>
+        <v>0.6640637618923226</v>
       </c>
       <c r="C82" t="n">
-        <v>26.51828872217859</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>side effect</t>
+          <t>209153</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10.27105360170039</v>
+        <v>0.6640637617926797</v>
       </c>
       <c r="C83" t="n">
-        <v>10.86259456843379</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>facebook com</t>
+          <t>203289</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9.368481464706768</v>
+        <v>0.664063761755522</v>
       </c>
       <c r="C84" t="n">
-        <v>9.955829112396614</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>public health</t>
+          <t>201063</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.532362508012325</v>
+        <v>0.664063761735503</v>
       </c>
       <c r="C85" t="n">
-        <v>8.141344224131503</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>social distancing</t>
+          <t>19263</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6.647667694307307</v>
+        <v>0.6640637615933315</v>
       </c>
       <c r="C86" t="n">
-        <v>7.234961418319313</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>health measure</t>
+          <t>209281</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5.740786808232135</v>
+        <v>0.6640637614391227</v>
       </c>
       <c r="C87" t="n">
-        <v>6.327992713261978</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>get infect</t>
+          <t>209511</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5.737934001803184</v>
+        <v>0.6640637614061446</v>
       </c>
       <c r="C88" t="n">
-        <v>6.327886314638197</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>public health measure</t>
+          <t>19536</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.833883844967603</v>
+        <v>0.6640637611609266</v>
       </c>
       <c r="C89" t="n">
-        <v>5.421034984394716</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mask wear</t>
+          <t>2012467</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.833831916189202</v>
+        <v>0.6640637609644284</v>
       </c>
       <c r="C90" t="n">
-        <v>5.421050991031464</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mask mandate</t>
+          <t>2012104</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.825768688875135</v>
+        <v>0.6640637606909295</v>
       </c>
       <c r="C91" t="n">
-        <v>5.420842150313091</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>long time</t>
+          <t>2130054</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3046764408170196</v>
+        <v>0.6640637605394797</v>
       </c>
       <c r="C92" t="n">
-        <v>5.228142812461157</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>com 2021 04</t>
+          <t>2110422</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3029558777704208</v>
+        <v>0.6640637603804098</v>
       </c>
       <c r="C93" t="n">
-        <v>5.228085493509714</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>com 2021</t>
+          <t>209411</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3029558777704208</v>
+        <v>0.6640637603568234</v>
       </c>
       <c r="C94" t="n">
-        <v>5.228085493509714</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>twitter com</t>
+          <t>2110252</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3047513316654143</v>
+        <v>0.6640637602075083</v>
       </c>
       <c r="C95" t="n">
-        <v>5.305695051188614</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>youtube com</t>
+          <t>208082</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3030525042374171</v>
+        <v>0.6640637600772353</v>
       </c>
       <c r="C96" t="n">
-        <v>5.305677600035576</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>youtube com watch</t>
+          <t>203223</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3030525042374171</v>
+        <v>0.6640637599126501</v>
       </c>
       <c r="C97" t="n">
-        <v>5.305677600035576</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>com watch</t>
+          <t>2010533</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3030525042374171</v>
+        <v>0.6640637598938154</v>
       </c>
       <c r="C98" t="n">
-        <v>5.305677600035576</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>19251</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3047356151676667</v>
+        <v>0.6640637595836169</v>
       </c>
       <c r="C99" t="n">
-        <v>6.189552900306544</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>death rate</t>
+          <t>19099</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3555947010045984</v>
+        <v>0.6640637594483718</v>
       </c>
       <c r="C100" t="n">
-        <v>7.835278686282163</v>
+        <v>1.000000078310695</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>covid vaccine</t>
+          <t>2130212</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3041262427914336</v>
+        <v>0.6640637594285577</v>
       </c>
       <c r="C101" t="n">
-        <v>6.964862648876571</v>
+        <v>1.000000078310696</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>straitstimes com</t>
+          <t>208391</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.305966700143154</v>
+        <v>0.664001985099721</v>
       </c>
       <c r="C102" t="n">
-        <v>7.014240022162841</v>
+        <v>0.9999998996484977</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021 04</t>
+          <t>2010372</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3034303916885096</v>
+        <v>0.6640019847585157</v>
       </c>
       <c r="C103" t="n">
-        <v>6.964855911348827</v>
+        <v>0.999999899648498</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>com news</t>
+          <t>207070</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3067764798350763</v>
+        <v>0.6640019843342163</v>
       </c>
       <c r="C104" t="n">
-        <v>7.957239503851866</v>
+        <v>0.999999899648498</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>wear mask</t>
+          <t>2011217</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3043920656492984</v>
+        <v>0.6640019828657073</v>
       </c>
       <c r="C105" t="n">
-        <v>7.957265388962418</v>
+        <v>0.9999998996484986</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>many people</t>
+          <t>201374</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3044966834505287</v>
+        <v>0.6640019828063655</v>
       </c>
       <c r="C106" t="n">
-        <v>8.701434608400611</v>
+        <v>0.9999998996484984</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>face shield</t>
+          <t>2110365</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3046309369036117</v>
+        <v>0.6640019826920224</v>
       </c>
       <c r="C107" t="n">
-        <v>9.569767822815495</v>
+        <v>0.9999998996484984</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>take vaccine</t>
+          <t>2110296</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.3084158892380462</v>
+        <v>0.6640019823204482</v>
       </c>
       <c r="C108" t="n">
-        <v>11.30663565711747</v>
+        <v>0.9999998996484987</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>covid 19</t>
+          <t>209064</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3098458186646265</v>
+        <v>0.6640019822754365</v>
       </c>
       <c r="C109" t="n">
-        <v>26.51828872217859</v>
+        <v>0.9999998996484987</v>
       </c>
       <c r="D109" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2012349</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6640019811479096</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9999998996484991</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2010210</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6640019809079116</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9999998996484994</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2011199</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.664001980611949</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9999998996484992</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>19507</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6640019804097838</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9999998996484993</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2012273</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.664001980029317</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9999998996484994</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2110242</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6640019800101926</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9999998996484994</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>209159</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6640019798543719</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9999998996484996</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>12151895087</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6640019796271319</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9999998996484997</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>19482</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6640019792436969</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9999998996484998</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2010273</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6640019790658435</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9999998996484998</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2110166</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6640019787462235</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9999998996484998</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>201307</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6640019786221123</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9999998996485</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2012149</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.6640019784463383</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9999998996484998</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>12155087069</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6640019783142275</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9999998996484999</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>209431</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6640019781992804</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>19326</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6640019780396818</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9999998996485</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>209337</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6640019779559375</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9999998996485</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>201513</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6640019778923681</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9999998996484999</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>207080</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6640019777666727</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>208550</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6640019777221704</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9999998996484999</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>203132</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.6640019775886233</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9999998996485004</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2012173</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.664001977424222</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9999998996485001</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2110136</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.6640019774081786</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9999998996485004</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2110084</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.6640019772892992</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9999998996485</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>19478</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.6640019772495022</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9999998996485</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2120395</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.6640019770218958</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.9999998996485006</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>209406</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.6640019769149268</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2110403</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6640019768954244</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.9999998996485004</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>19333</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.6640019768412595</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2120202</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6640019768402647</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2012350</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6640019765203121</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9999998996485008</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>201288</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.6640019763915794</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>19532</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6640019763896946</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9999998996485004</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2130327</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.6640019762577838</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.9999998996485002</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>201074</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.6640019761966037</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9999998996485007</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2010232</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.6640019759018643</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9999998996485007</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>209435</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.6640019758165292</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9999998996485007</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>201067</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.664001975519502</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9999998996485007</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>19175</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6640019752887102</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9999998996485009</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2110407</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6640019752657944</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.999999899648501</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>208503</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6640019751773305</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9999998996485006</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2010299</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.6640019750578562</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9999998996485007</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2012233</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.6640454774515265</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>201253</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.664045477106185</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2010404</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.6640454758471611</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2120223</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.6640454743981502</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>203094</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.6640454730698271</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2011427</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.6640454720872664</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>19164</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.664045471702472</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.000000024852307</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2130344</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.6640454715311291</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2110366</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.6640454714216645</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.000000024852307</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>19322</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.6640454708017008</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>207091</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6640454706938762</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>209430</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.6640454706263221</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2130437</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.6640454705058463</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2130255</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6640454701802024</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>209486</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.6640454700503952</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2012462</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.6640454694768416</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>19344</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.6640454693859976</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2120411</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.66404546920115</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>19486</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.6640454690755813</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2120050</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.6640454689558072</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>19078</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.6640454689182798</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2012191</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.6640454688743269</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>19273</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.6640454685733079</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>19059</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.6640454682900677</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>19448</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.6640454681323288</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2110456</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.6640454679522422</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>19362</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.6640454679381317</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>203336</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.6640454678590225</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>208124</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.6640454677170772</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2010101</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.6640454676841802</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2010556</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.6640454676689902</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>201456</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.6640454676061969</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2011457</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.6640454673260362</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6640454670938046</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2012311</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.6640454670053156</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2130101</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.6640454669786802</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.000000024852307</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2110326</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.664045466920132</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2012493</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.66404546691772</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>19139</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.6640454668950228</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2011029</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.6640454668438109</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2011176</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.664045466598728</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>19024</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.6640454665646198</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2012132</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.6640454665026291</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2110128</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.6640454664796401</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>12133240150</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.6640454663708821</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>201082</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.6640454663181418</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>208480</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.664045466214997</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2012421</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.6640454661502785</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.000000024852306</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>19397</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.664045466014209</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>209467</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.6640454658882776</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.000000024852305</v>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>Topic3</t>
         </is>

--- a/output/Keywords.xlsx
+++ b/output/Keywords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,14 +391,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2130451</t>
+          <t>come</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -409,14 +409,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12130520147</t>
+          <t>much</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -427,14 +427,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>208537</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -445,14 +445,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203150</t>
+          <t>close</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -463,14 +463,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2110396</t>
+          <t>new</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -481,14 +481,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201076</t>
+          <t>attraction</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -499,14 +499,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>207203</t>
+          <t>visit</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,14 +517,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19074</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -535,14 +535,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2110116</t>
+          <t>interesting</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201473</t>
+          <t>different</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -571,14 +571,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19518</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -589,14 +589,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2130043</t>
+          <t>much see</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,14 +607,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>already</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>208433</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -643,14 +643,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>203112</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2011027</t>
+          <t>change</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>201048</t>
+          <t>come back</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -697,14 +697,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19293</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -715,14 +715,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>209088</t>
+          <t>far</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -733,14 +733,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>207053</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2010468</t>
+          <t>event</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -769,14 +769,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2012342</t>
+          <t>small</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201431</t>
+          <t>swf</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>201052</t>
+          <t>zoo</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>209466</t>
+          <t>see</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,14 +841,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19126</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -859,14 +859,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2010267</t>
+          <t>would</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2010233</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,14 +895,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>209035</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>208033</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>201085</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -949,14 +949,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>209153</t>
+          <t>great</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>203289</t>
+          <t>long</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>201063</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19263</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,14 +1021,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>209281</t>
+          <t>ride</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1039,14 +1039,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>209511</t>
+          <t>programme</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19536</t>
+          <t>see animal</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1075,14 +1075,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2012467</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,14 +1093,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2012104</t>
+          <t>exhibit</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1111,14 +1111,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2130054</t>
+          <t>make</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2110422</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1147,14 +1147,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>209411</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2110252</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>208082</t>
+          <t>park</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>203223</t>
+          <t>live</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1219,14 +1219,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2010533</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1237,14 +1237,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19251</t>
+          <t>often</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1255,14 +1255,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19099</t>
+          <t>available</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1273,14 +1273,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2130212</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2130451</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6640637722796969</v>
+        <v>64.30023422774477</v>
       </c>
       <c r="C52" t="n">
-        <v>1.000000078310698</v>
+        <v>64.79249944337751</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12130520147</t>
+          <t>already</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.664063770341925</v>
+        <v>63.35394924500862</v>
       </c>
       <c r="C53" t="n">
-        <v>1.000000078310698</v>
+        <v>63.88995406998978</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1327,14 +1327,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>208537</t>
+          <t>visit</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6640637699371942</v>
+        <v>79.35650773726546</v>
       </c>
       <c r="C54" t="n">
-        <v>1.000000078310698</v>
+        <v>80.08446994729688</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1345,14 +1345,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>203150</t>
+          <t>change</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.664063769280795</v>
+        <v>59.73376989778181</v>
       </c>
       <c r="C55" t="n">
-        <v>1.000000078310697</v>
+        <v>60.28798415574765</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2110396</t>
+          <t>swf</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.6640637669133139</v>
+        <v>46.35851307542212</v>
       </c>
       <c r="C56" t="n">
-        <v>1.000000078310697</v>
+        <v>46.79057347974047</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>201076</t>
+          <t>event</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6640637663139509</v>
+        <v>50.71226438192056</v>
       </c>
       <c r="C57" t="n">
-        <v>1.000000078310697</v>
+        <v>51.28450011750731</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>207203</t>
+          <t>would</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.6640637662102724</v>
+        <v>39.09686338297634</v>
       </c>
       <c r="C58" t="n">
-        <v>1.000000078310697</v>
+        <v>39.5855738058394</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1417,14 +1417,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19074</t>
+          <t>programme</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.6640637657055384</v>
+        <v>31.05486297391789</v>
       </c>
       <c r="C59" t="n">
-        <v>1.000000078310697</v>
+        <v>31.48628880683395</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2110116</t>
+          <t>great</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6640637654669138</v>
+        <v>33.71409608040729</v>
       </c>
       <c r="C60" t="n">
-        <v>1.000000078310697</v>
+        <v>34.18498352435628</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1453,14 +1453,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>201473</t>
+          <t>see animal</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.6640637649477642</v>
+        <v>31.03280622666368</v>
       </c>
       <c r="C61" t="n">
-        <v>1.000000078310697</v>
+        <v>31.48519084315491</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1471,14 +1471,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>19518</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6640637648385572</v>
+        <v>27.45382409943065</v>
       </c>
       <c r="C62" t="n">
-        <v>1.000000078310697</v>
+        <v>27.88527168692826</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1489,14 +1489,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2130043</t>
+          <t>long</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6640637647976292</v>
+        <v>32.76386405314046</v>
       </c>
       <c r="C63" t="n">
-        <v>1.000000078310696</v>
+        <v>33.28224167088545</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1507,14 +1507,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>live</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6640637647185794</v>
+        <v>27.41867714764502</v>
       </c>
       <c r="C64" t="n">
-        <v>1.000000078310697</v>
+        <v>27.88352210544908</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1525,14 +1525,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>208433</t>
+          <t>new</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.6640637644892756</v>
+        <v>94.61077513000279</v>
       </c>
       <c r="C65" t="n">
-        <v>1.000000078310697</v>
+        <v>96.24173661287878</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>203112</t>
+          <t>writer</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.6640637643281878</v>
+        <v>24.74828510817053</v>
       </c>
       <c r="C66" t="n">
-        <v>1.000000078310697</v>
+        <v>25.18427190696784</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2011027</t>
+          <t>miss</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.6640637640177305</v>
+        <v>24.74193509659062</v>
       </c>
       <c r="C67" t="n">
-        <v>1.000000078310696</v>
+        <v>25.18395580949456</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1579,14 +1579,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>201048</t>
+          <t>exhibit</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.6640637634380168</v>
+        <v>30.0085042786822</v>
       </c>
       <c r="C68" t="n">
-        <v>1.000000078310696</v>
+        <v>30.57876186022176</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1597,14 +1597,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>19293</t>
+          <t>available</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.6640637628972358</v>
+        <v>26.47564643768123</v>
       </c>
       <c r="C69" t="n">
-        <v>1.000000078310696</v>
+        <v>26.98113872663216</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1615,14 +1615,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>209088</t>
+          <t>often</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.6640637628308951</v>
+        <v>27.348628006378</v>
       </c>
       <c r="C70" t="n">
-        <v>1.000000078310696</v>
+        <v>27.88003512652309</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,14 +1633,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>207053</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.664063762820952</v>
+        <v>25.58299760907231</v>
       </c>
       <c r="C71" t="n">
-        <v>1.000000078310696</v>
+        <v>26.08126330944545</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1651,14 +1651,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2010468</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6640637627572813</v>
+        <v>23.81728384865436</v>
       </c>
       <c r="C72" t="n">
-        <v>1.000000078310697</v>
+        <v>24.28248734263222</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1669,14 +1669,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2012342</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6640637626488456</v>
+        <v>21.15124520281827</v>
       </c>
       <c r="C73" t="n">
-        <v>1.000000078310696</v>
+        <v>21.58345385190219</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>201431</t>
+          <t>zoo</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.664063762638355</v>
+        <v>45.8138258082438</v>
       </c>
       <c r="C74" t="n">
-        <v>1.000000078310696</v>
+        <v>46.76345947109719</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>201052</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.6640637624974929</v>
+        <v>59.90864690479278</v>
       </c>
       <c r="C75" t="n">
-        <v>1.000000078310697</v>
+        <v>61.15212958153036</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1723,14 +1723,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>209466</t>
+          <t>make</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.6640637623022657</v>
+        <v>29.95174124492917</v>
       </c>
       <c r="C76" t="n">
-        <v>1.000000078310696</v>
+        <v>30.57593625095848</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>19126</t>
+          <t>attend</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.6640637622952463</v>
+        <v>20.24981805336509</v>
       </c>
       <c r="C77" t="n">
-        <v>1.000000078310696</v>
+        <v>20.68314145834103</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1759,14 +1759,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2010267</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6640637621857033</v>
+        <v>22.01065552235418</v>
       </c>
       <c r="C78" t="n">
-        <v>1.000000078310696</v>
+        <v>22.48167468805352</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1777,14 +1777,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2010233</t>
+          <t>festival</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6640637621701568</v>
+        <v>20.24179689706137</v>
       </c>
       <c r="C79" t="n">
-        <v>1.000000078310696</v>
+        <v>20.68274217288958</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,14 +1795,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>209035</t>
+          <t>vod</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6640637621652022</v>
+        <v>19.35207962451222</v>
       </c>
       <c r="C80" t="n">
-        <v>1.000000078310696</v>
+        <v>19.78301268574603</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>208033</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.6640637619628548</v>
+        <v>21.98674729268768</v>
       </c>
       <c r="C81" t="n">
-        <v>1.000000078310696</v>
+        <v>22.48048455935977</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1831,14 +1831,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>201085</t>
+          <t>queue</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6640637618923226</v>
+        <v>21.10029727075523</v>
       </c>
       <c r="C82" t="n">
-        <v>1.000000078310695</v>
+        <v>21.58091771281155</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1849,14 +1849,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>209153</t>
+          <t>video demand</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.6640637617926797</v>
+        <v>18.45047115262459</v>
       </c>
       <c r="C83" t="n">
-        <v>1.000000078310696</v>
+        <v>18.88269126612836</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,14 +1867,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>203289</t>
+          <t>still</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.664063761755522</v>
+        <v>25.44524272915188</v>
       </c>
       <c r="C84" t="n">
-        <v>1.000000078310696</v>
+        <v>26.07440600392372</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1885,14 +1885,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>201063</t>
+          <t>work</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.664063761735503</v>
+        <v>21.02787681444661</v>
       </c>
       <c r="C85" t="n">
-        <v>1.000000078310695</v>
+        <v>21.57731269210205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1903,14 +1903,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>19263</t>
+          <t>sistic</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.6640637615933315</v>
+        <v>16.6460923686543</v>
       </c>
       <c r="C86" t="n">
-        <v>1.000000078310696</v>
+        <v>17.0819905916048</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1921,14 +1921,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>209281</t>
+          <t>sure</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.6640637614391227</v>
+        <v>20.14844237930916</v>
       </c>
       <c r="C87" t="n">
-        <v>1.000000078310696</v>
+        <v>20.67809507472154</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>209511</t>
+          <t>able</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6640637614061446</v>
+        <v>16.63547480161519</v>
       </c>
       <c r="C88" t="n">
-        <v>1.000000078310696</v>
+        <v>17.08146205932239</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1957,14 +1957,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>19536</t>
+          <t>also</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.6640637611609266</v>
+        <v>22.75619960535343</v>
       </c>
       <c r="C89" t="n">
-        <v>1.000000078310696</v>
+        <v>23.37422737239094</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1975,14 +1975,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2012467</t>
+          <t>night</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.6640637609644284</v>
+        <v>21.8752078930782</v>
       </c>
       <c r="C90" t="n">
-        <v>1.000000078310696</v>
+        <v>22.47493223525127</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1993,14 +1993,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2012104</t>
+          <t>site</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.6640637606909295</v>
+        <v>15.74333955286756</v>
       </c>
       <c r="C91" t="n">
-        <v>1.000000078310695</v>
+        <v>16.18161220764767</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2011,14 +2011,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2130054</t>
+          <t>much change</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.6640637605394797</v>
+        <v>26.23826651196388</v>
       </c>
       <c r="C92" t="n">
-        <v>1.000000078310695</v>
+        <v>26.9693221820836</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2029,14 +2029,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2110422</t>
+          <t>fun</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.6640637603804098</v>
+        <v>19.23869825422354</v>
       </c>
       <c r="C93" t="n">
-        <v>1.000000078310695</v>
+        <v>19.77736867010711</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2047,14 +2047,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>209411</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.6640637603568234</v>
+        <v>17.47800877501453</v>
       </c>
       <c r="C94" t="n">
-        <v>1.000000078310696</v>
+        <v>17.97884280718359</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2110252</t>
+          <t>session</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.6640637602075083</v>
+        <v>14.85161941853971</v>
       </c>
       <c r="C95" t="n">
-        <v>1.000000078310696</v>
+        <v>15.28178301996979</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2083,14 +2083,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>208082</t>
+          <t>enjoy</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.6640637600772353</v>
+        <v>20.0878279990314</v>
       </c>
       <c r="C96" t="n">
-        <v>1.000000078310695</v>
+        <v>20.6750777491299</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2101,14 +2101,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>203223</t>
+          <t>online</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.6640637599126501</v>
+        <v>15.71328593635988</v>
       </c>
       <c r="C97" t="n">
-        <v>1.000000078310696</v>
+        <v>16.18011616750334</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2010533</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.6640637598938154</v>
+        <v>20.06948369809862</v>
       </c>
       <c r="C98" t="n">
-        <v>1.000000078310696</v>
+        <v>20.67416458746083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2137,14 +2137,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>19251</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.6640637595836169</v>
+        <v>18.28713085231439</v>
       </c>
       <c r="C99" t="n">
-        <v>1.000000078310695</v>
+        <v>18.87456034297015</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2155,14 +2155,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>19099</t>
+          <t>many animal</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.6640637594483718</v>
+        <v>13.92989344527029</v>
       </c>
       <c r="C100" t="n">
-        <v>1.000000078310695</v>
+        <v>14.38046017046872</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2173,14 +2173,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2130212</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.6640637594285577</v>
+        <v>13.92457129543651</v>
       </c>
       <c r="C101" t="n">
-        <v>1.000000078310696</v>
+        <v>14.38019523896531</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2191,374 +2191,374 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>208391</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.664001985099721</v>
+        <v>18.26699533162767</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9999998996484977</v>
+        <v>18.87355801610347</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2010372</t>
+          <t>ticket</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6640019847585157</v>
+        <v>26.78985502681914</v>
       </c>
       <c r="C103" t="n">
-        <v>0.999999899648498</v>
+        <v>27.85221994465664</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>207070</t>
+          <t>next</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.6640019843342163</v>
+        <v>19.91920479664205</v>
       </c>
       <c r="C104" t="n">
-        <v>0.999999899648498</v>
+        <v>20.66668384818445</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2011217</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.6640019828657073</v>
+        <v>18.11989442320738</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9999998996484986</v>
+        <v>18.86623547426591</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>201374</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.6640019828063655</v>
+        <v>118.3633971068442</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9999998996484984</v>
+        <v>147.895092076228</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2110365</t>
+          <t>show</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6640019826920224</v>
+        <v>115.0518533959056</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9999998996484984</v>
+        <v>144.3084857473199</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2110296</t>
+          <t>look</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6640019823204482</v>
+        <v>19.57655445165362</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9999998996484987</v>
+        <v>20.64962704334404</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>209064</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.6640019822754365</v>
+        <v>85.92862042560463</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9999998996484987</v>
+        <v>118.9064331406893</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2012349</t>
+          <t>see</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6640019811479096</v>
+        <v>115.5756652411113</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9999998996484991</v>
+        <v>265.8070713340659</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2010210</t>
+          <t>many</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.6640019809079116</v>
+        <v>41.8388598448496</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9999998996484994</v>
+        <v>69.6624753301911</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2011199</t>
+          <t>kid</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.664001980611949</v>
+        <v>41.33921259221236</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9999998996484992</v>
+        <v>70.49304358663771</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>19507</t>
+          <t>need</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.6640019804097838</v>
+        <v>34.89640491094352</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9999998996484993</v>
+        <v>58.19616378230855</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2012273</t>
+          <t>expensive</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.664001980029317</v>
+        <v>25.42394837974622</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9999998996484994</v>
+        <v>33.7723079397675</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2110242</t>
+          <t>quite</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6640019800101926</v>
+        <v>25.54417218265061</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9999998996484994</v>
+        <v>37.20005343094313</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>209159</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.6640019798543719</v>
+        <v>41.25123835752448</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9999998996484996</v>
+        <v>141.4902022795174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>12151895087</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6640019796271319</v>
+        <v>28.19377672598678</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9999998996484997</v>
+        <v>57.00707317693737</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>19482</t>
+          <t>want</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.6640019792436969</v>
+        <v>23.89188525389516</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9999998996484998</v>
+        <v>36.26236395924599</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2010273</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.6640019790658435</v>
+        <v>25.9772025261266</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9999998996484998</v>
+        <v>89.40346246896809</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2110166</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6640019787462235</v>
+        <v>22.49625053064554</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9999998996484998</v>
+        <v>45.60273298511596</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>201307</t>
+          <t>really</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6640019786221123</v>
+        <v>20.99230796874439</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9999998996485</v>
+        <v>30.98538449014909</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2012149</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.6640019784463383</v>
+        <v>91.78551792381739</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9999998996484998</v>
+        <v>92.41908156627019</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2569,14 +2569,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>12155087069</t>
+          <t>close</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.6640019783142275</v>
+        <v>62.81204763051434</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9999998996484999</v>
+        <v>63.32827323190984</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2587,14 +2587,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>209431</t>
+          <t>much</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.6640019781992804</v>
+        <v>149.3757708504373</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9999998996485002</v>
+        <v>150.6193839613803</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2605,14 +2605,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>19326</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6640019780396818</v>
+        <v>50.01918662857791</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9999998996485</v>
+        <v>50.49464040271833</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2623,14 +2623,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>209337</t>
+          <t>attraction</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.6640019779559375</v>
+        <v>53.36191651068109</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9999998996485</v>
+        <v>53.92054144915804</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2641,14 +2641,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>interesting</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6640019778923681</v>
+        <v>47.43024997772666</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9999998996484999</v>
+        <v>47.92950453338256</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2659,14 +2659,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>207080</t>
+          <t>much see</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.6640019777666727</v>
+        <v>41.47320111760926</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9999998996485002</v>
+        <v>41.93979731659511</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2677,14 +2677,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>208550</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.6640019777221704</v>
+        <v>39.72656324194506</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9999998996484999</v>
+        <v>40.23079010181647</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2695,14 +2695,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>203132</t>
+          <t>come back</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6640019775886233</v>
+        <v>37.08192850853401</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9999998996485004</v>
+        <v>37.66857207699245</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2713,14 +2713,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2012173</t>
+          <t>small</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.664001977424222</v>
+        <v>32.00992263641707</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9999998996485001</v>
+        <v>32.5327542820804</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2731,14 +2731,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2110136</t>
+          <t>different</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.6640019774081786</v>
+        <v>45.410087556206</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9999998996485004</v>
+        <v>46.23482639526638</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2749,14 +2749,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2110084</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.6640019772892992</v>
+        <v>33.59879570291012</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9999998996485</v>
+        <v>34.25002629093105</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2767,14 +2767,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>19478</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.6640019772495022</v>
+        <v>24.35283770385887</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9999998996485</v>
+        <v>24.83159853100187</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2785,14 +2785,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2120395</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.6640019770218958</v>
+        <v>23.47108050362855</v>
       </c>
       <c r="C135" t="n">
-        <v>0.9999998996485006</v>
+        <v>23.9775369772075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2803,14 +2803,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>209406</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.6640019769149268</v>
+        <v>21.78021098277301</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9999998996485002</v>
+        <v>22.26560823657895</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2821,14 +2821,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2110403</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6640019768954244</v>
+        <v>20.08480129342204</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9999998996485004</v>
+        <v>20.55391734086573</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2839,14 +2839,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>19333</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6640019768412595</v>
+        <v>20.07014802665037</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9999998996485002</v>
+        <v>20.55468497867404</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2857,14 +2857,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2120202</t>
+          <t>ride</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.6640019768402647</v>
+        <v>20.04727619735859</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9999998996485002</v>
+        <v>20.55588316070293</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2875,14 +2875,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2012350</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.6640019765203121</v>
+        <v>19.20520632947444</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9999998996485008</v>
+        <v>19.69974251442383</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2893,14 +2893,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>201288</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.6640019763915794</v>
+        <v>17.49653535409187</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9999998996485002</v>
+        <v>17.98874633509728</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2911,14 +2911,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>19532</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.6640019763896946</v>
+        <v>15.81732009809128</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9999998996485004</v>
+        <v>16.27620706478493</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2929,14 +2929,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2130327</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6640019762577838</v>
+        <v>17.47640637290633</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9999998996485002</v>
+        <v>17.98980082808115</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2947,14 +2947,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>201074</t>
+          <t>park</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6640019761966037</v>
+        <v>17.47136003403967</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9999998996485007</v>
+        <v>17.99006518964421</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2010232</t>
+          <t>come</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6640019759018643</v>
+        <v>182.1327981068308</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9999998996485007</v>
+        <v>187.6142697957852</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2983,14 +2983,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>209435</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6640019758165292</v>
+        <v>17.4574137257632</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9999998996485007</v>
+        <v>17.99079579215673</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3001,14 +3001,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>201067</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.664001975519502</v>
+        <v>15.78433200508185</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9999998996485007</v>
+        <v>16.27793520553413</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3019,14 +3019,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>19175</t>
+          <t>bring</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.6640019752887102</v>
+        <v>14.94499345664284</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9999998996485009</v>
+        <v>15.42165147415983</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3037,14 +3037,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2110407</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.6640019752657944</v>
+        <v>14.10030425790632</v>
       </c>
       <c r="C149" t="n">
-        <v>0.999999899648501</v>
+        <v>14.56564804625173</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3055,14 +3055,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>208503</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6640019751773305</v>
+        <v>14.08675568471087</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9999998996485006</v>
+        <v>14.56635781269457</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3073,14 +3073,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2010299</t>
+          <t>boat ride</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.6640019750578562</v>
+        <v>13.25546705241374</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9999998996485007</v>
+        <v>13.70965237194449</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3091,900 +3091,756 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2012233</t>
+          <t>one time</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.6640454774515265</v>
+        <v>14.04723522549457</v>
       </c>
       <c r="C152" t="n">
-        <v>1.000000024852306</v>
+        <v>14.5684281632294</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>201253</t>
+          <t>music</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.664045477106185</v>
+        <v>11.53009475788895</v>
       </c>
       <c r="C153" t="n">
-        <v>1.000000024852306</v>
+        <v>11.99953112134344</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2010404</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.6640454758471611</v>
+        <v>13.98479179387908</v>
       </c>
       <c r="C154" t="n">
-        <v>1.000000024852306</v>
+        <v>14.57169937501708</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2120223</t>
+          <t>much animal</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.6640454743981502</v>
+        <v>12.33787377931263</v>
       </c>
       <c r="C155" t="n">
-        <v>1.000000024852306</v>
+        <v>12.85746815546095</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>203094</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.6640454730698271</v>
+        <v>11.51031858409475</v>
       </c>
       <c r="C156" t="n">
-        <v>1.000000024852306</v>
+        <v>12.00056713187565</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2011427</t>
+          <t>many time</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.6640454720872664</v>
+        <v>11.51005287903246</v>
       </c>
       <c r="C157" t="n">
-        <v>1.000000024852306</v>
+        <v>12.00058105131466</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>19164</t>
+          <t>stuff</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.664045471702472</v>
+        <v>10.6812346964956</v>
       </c>
       <c r="C158" t="n">
-        <v>1.000000024852307</v>
+        <v>11.14374619159814</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2130344</t>
+          <t>area</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.6640454715311291</v>
+        <v>11.49048689416368</v>
       </c>
       <c r="C159" t="n">
-        <v>1.000000024852306</v>
+        <v>12.00160605072103</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2110366</t>
+          <t>special</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.6640454714216645</v>
+        <v>11.48270805933122</v>
       </c>
       <c r="C160" t="n">
-        <v>1.000000024852307</v>
+        <v>12.00201355901348</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>19322</t>
+          <t>old</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.6640454708017008</v>
+        <v>10.66079694083535</v>
       </c>
       <c r="C161" t="n">
-        <v>1.000000024852306</v>
+        <v>11.14481686028969</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>207091</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.6640454706938762</v>
+        <v>11.47441266811648</v>
       </c>
       <c r="C162" t="n">
-        <v>1.000000024852306</v>
+        <v>12.0024481280438</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>209430</t>
+          <t>see lot</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.6640454706263221</v>
+        <v>9.827269175347382</v>
       </c>
       <c r="C163" t="n">
-        <v>1.000000024852306</v>
+        <v>10.28822872057026</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2130437</t>
+          <t>less</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.6640454705058463</v>
+        <v>10.64482001798939</v>
       </c>
       <c r="C164" t="n">
-        <v>1.000000024852306</v>
+        <v>11.14565384020872</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2130255</t>
+          <t>crowded</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.6640454701802024</v>
+        <v>10.6438399008522</v>
       </c>
       <c r="C165" t="n">
-        <v>1.000000024852306</v>
+        <v>11.14570518541259</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>209486</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.6640454700503952</v>
+        <v>9.79664013705132</v>
       </c>
       <c r="C166" t="n">
-        <v>1.000000024852306</v>
+        <v>10.28983327798349</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2012462</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.6640454694768416</v>
+        <v>8.966761551212779</v>
       </c>
       <c r="C167" t="n">
-        <v>1.000000024852305</v>
+        <v>9.433053969406522</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>19344</t>
+          <t>diff</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.6640454693859976</v>
+        <v>8.965562852844631</v>
       </c>
       <c r="C168" t="n">
-        <v>1.000000024852306</v>
+        <v>9.433116765382392</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2120411</t>
+          <t>time enough</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.66404546920115</v>
+        <v>8.964358889726052</v>
       </c>
       <c r="C169" t="n">
-        <v>1.000000024852306</v>
+        <v>9.433179837161912</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>19486</t>
+          <t>sg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.6640454690755813</v>
+        <v>10.59063406602469</v>
       </c>
       <c r="C170" t="n">
-        <v>1.000000024852306</v>
+        <v>11.14849246903184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2120050</t>
+          <t>shelter</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6640454689558072</v>
+        <v>9.771204623011013</v>
       </c>
       <c r="C171" t="n">
-        <v>1.000000024852306</v>
+        <v>10.29116576326175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>19078</t>
+          <t>engaging</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.6640454689182798</v>
+        <v>9.767899021997685</v>
       </c>
       <c r="C172" t="n">
-        <v>1.000000024852306</v>
+        <v>10.29133893313272</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2012191</t>
+          <t>far</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.6640454688743269</v>
+        <v>44.40459056281293</v>
       </c>
       <c r="C173" t="n">
-        <v>1.000000024852306</v>
+        <v>48.98826315396619</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>19273</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.6640454685733079</v>
+        <v>12.1111685999356</v>
       </c>
       <c r="C174" t="n">
-        <v>1.000000024852306</v>
+        <v>12.86934451516688</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>19059</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.6640454682900677</v>
+        <v>39.77178175962717</v>
       </c>
       <c r="C175" t="n">
-        <v>1.000000024852305</v>
+        <v>49.23096119884261</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>19448</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.6640454681323288</v>
+        <v>100.2389639219929</v>
       </c>
       <c r="C176" t="n">
-        <v>1.000000024852306</v>
+        <v>141.4902022795174</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2110456</t>
+          <t>open</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.6640454679522422</v>
+        <v>20.02382575859842</v>
       </c>
       <c r="C177" t="n">
-        <v>1.000000024852306</v>
+        <v>23.25787363942117</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>19362</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.6640454679381317</v>
+        <v>63.42625994284148</v>
       </c>
       <c r="C178" t="n">
-        <v>1.000000024852305</v>
+        <v>89.40346246896809</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>203336</t>
+          <t>see</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.6640454678590225</v>
+        <v>150.2314060929546</v>
       </c>
       <c r="C179" t="n">
-        <v>1.000000024852305</v>
+        <v>265.8070713340659</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>208124</t>
+          <t>know</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.6640454677170772</v>
+        <v>26.18875761466255</v>
       </c>
       <c r="C180" t="n">
-        <v>1.000000024852306</v>
+        <v>36.43872249103441</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2010101</t>
+          <t>people</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.6640454676841802</v>
+        <v>26.83043421342634</v>
       </c>
       <c r="C181" t="n">
-        <v>1.000000024852306</v>
+        <v>38.20561509520841</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2010556</t>
+          <t>child</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.6640454676689902</v>
+        <v>19.52851423844414</v>
       </c>
       <c r="C182" t="n">
-        <v>1.000000024852306</v>
+        <v>25.08432941687323</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>201456</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.6640454676061969</v>
+        <v>12.78965208363058</v>
       </c>
       <c r="C183" t="n">
-        <v>1.000000024852306</v>
+        <v>14.63430892428868</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2011457</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.6640454673260362</v>
+        <v>28.81329645095058</v>
       </c>
       <c r="C184" t="n">
-        <v>1.000000024852306</v>
+        <v>57.00707317693737</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>19278</t>
+          <t>kid</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.6640454670938046</v>
+        <v>29.15383099442534</v>
       </c>
       <c r="C185" t="n">
-        <v>1.000000024852306</v>
+        <v>70.49304358663771</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2012311</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.6640454670053156</v>
+        <v>23.10648245447042</v>
       </c>
       <c r="C186" t="n">
-        <v>1.000000024852306</v>
+        <v>45.60273298511596</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2130101</t>
+          <t>many</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.6640454669786802</v>
+        <v>27.8236154853415</v>
       </c>
       <c r="C187" t="n">
-        <v>1.000000024852307</v>
+        <v>69.6624753301911</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2110326</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.664045466920132</v>
+        <v>32.97781271508471</v>
       </c>
       <c r="C188" t="n">
-        <v>1.000000024852306</v>
+        <v>118.9064331406893</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2012493</t>
+          <t>need</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.66404546691772</v>
+        <v>23.29975887136503</v>
       </c>
       <c r="C189" t="n">
-        <v>1.000000024852305</v>
+        <v>58.19616378230855</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>19139</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.6640454668950228</v>
+        <v>17.10879806857871</v>
       </c>
       <c r="C190" t="n">
-        <v>1.000000024852306</v>
+        <v>29.7123605879411</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2011029</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.6640454668438109</v>
+        <v>29.53169496938382</v>
       </c>
       <c r="C191" t="n">
-        <v>1.000000024852306</v>
+        <v>147.895092076228</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2011176</t>
+          <t>show</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.664045466598728</v>
+        <v>29.25663235141429</v>
       </c>
       <c r="C192" t="n">
-        <v>1.000000024852306</v>
+        <v>144.3084857473199</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>19024</t>
+          <t>give</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.6640454665646198</v>
+        <v>15.80076091251073</v>
       </c>
       <c r="C193" t="n">
-        <v>1.000000024852305</v>
+        <v>27.08012248834449</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2012132</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0.6640454665026291</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.000000024852305</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2110128</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0.6640454664796401</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.000000024852305</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>12133240150</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0.6640454663708821</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.000000024852306</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>201082</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0.6640454663181418</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.000000024852305</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>208480</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0.664045466214997</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.000000024852306</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2012421</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0.6640454661502785</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1.000000024852306</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>19397</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0.664045466014209</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.000000024852305</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Topic3</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>209467</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0.6640454658882776</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.000000024852305</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Topic3</t>
+          <t>Topic2</t>
         </is>
       </c>
     </row>

--- a/output/Keywords.xlsx
+++ b/output/Keywords.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +395,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -409,14 +409,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>show</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -427,14 +427,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>see</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -445,14 +445,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -463,14 +463,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>much</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -481,14 +481,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>attraction</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -499,14 +499,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>visit</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,14 +517,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -535,14 +535,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>interesting</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -571,14 +571,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>change</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>swf</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -643,14 +643,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>quite</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>interesting</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>come back</t>
+          <t>attraction</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -697,14 +697,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -733,14 +733,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>would</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>expensive</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -769,14 +769,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>kid</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>swf</t>
+          <t>visit</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zoo</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="C26" t="n">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,14 +841,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>know</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -859,14 +859,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>well</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>come back</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,14 +895,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>event</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C30" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -913,14 +913,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>activity</t>
+          <t>small</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>shopping</t>
+          <t>close</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -949,14 +949,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>live</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -985,14 +985,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>singapore</t>
+          <t>programme</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>ticket</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,14 +1021,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ride</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1039,14 +1039,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>programme</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>see animal</t>
+          <t>people</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1075,14 +1075,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>exhibit</t>
+          <t>see animal</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1111,14 +1111,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>open</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1147,14 +1147,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>new</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1219,14 +1219,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>walk</t>
+          <t>writer</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1255,14 +1255,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>much change</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1291,14 +1291,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>show</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>64.30023422774477</v>
+        <v>150.3567404392378</v>
       </c>
       <c r="C52" t="n">
-        <v>64.79249944337751</v>
+        <v>151.0578433904057</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>different</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>63.35394924500862</v>
+        <v>49.63433204353219</v>
       </c>
       <c r="C53" t="n">
-        <v>63.88995406998978</v>
+        <v>50.34504749231938</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1327,14 +1327,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>visit</t>
+          <t>expensive</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>79.35650773726546</v>
+        <v>34.73183097282402</v>
       </c>
       <c r="C54" t="n">
-        <v>80.08446994729688</v>
+        <v>35.42479281255701</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1345,14 +1345,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>ticket</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>59.73376989778181</v>
+        <v>28.18095342920849</v>
       </c>
       <c r="C55" t="n">
-        <v>60.28798415574765</v>
+        <v>28.89696509057479</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1363,14 +1363,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>swf</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>46.35851307542212</v>
+        <v>18.87191127741373</v>
       </c>
       <c r="C56" t="n">
-        <v>46.79057347974047</v>
+        <v>19.57183812924329</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50.71226438192056</v>
+        <v>17.91477258593019</v>
       </c>
       <c r="C57" t="n">
-        <v>51.28450011750731</v>
+        <v>18.63924958006829</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>39.09686338297634</v>
+        <v>16.99999172543328</v>
       </c>
       <c r="C58" t="n">
-        <v>39.5855738058394</v>
+        <v>17.70658944346542</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1417,14 +1417,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>programme</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>31.05486297391789</v>
+        <v>15.14710308492279</v>
       </c>
       <c r="C59" t="n">
-        <v>31.48628880683395</v>
+        <v>15.84157070095586</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>33.71409608040729</v>
+        <v>15.13336219754483</v>
       </c>
       <c r="C60" t="n">
-        <v>34.18498352435628</v>
+        <v>15.8415666791081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1453,14 +1453,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>see animal</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>31.03280622666368</v>
+        <v>13.28593546116456</v>
       </c>
       <c r="C61" t="n">
-        <v>31.48519084315491</v>
+        <v>13.97668308869587</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1471,14 +1471,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>see show</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>27.45382409943065</v>
+        <v>13.27958161538178</v>
       </c>
       <c r="C62" t="n">
-        <v>27.88527168692826</v>
+        <v>13.97645775115083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1489,14 +1489,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32.76386405314046</v>
+        <v>12.34591790295713</v>
       </c>
       <c r="C63" t="n">
-        <v>33.28224167088545</v>
+        <v>13.04399401268812</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1507,14 +1507,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>show full</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>27.41867714764502</v>
+        <v>11.42191898129184</v>
       </c>
       <c r="C64" t="n">
-        <v>27.88352210544908</v>
+        <v>12.11157336454875</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1525,14 +1525,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>crowded</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>94.61077513000279</v>
+        <v>11.41710172472356</v>
       </c>
       <c r="C65" t="n">
-        <v>96.24173661287878</v>
+        <v>12.11133158928053</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>writer</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>24.74828510817053</v>
+        <v>11.41587045589202</v>
       </c>
       <c r="C66" t="n">
-        <v>25.18427190696784</v>
+        <v>12.11141130049667</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>miss</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>24.74193509659062</v>
+        <v>11.38518314363983</v>
       </c>
       <c r="C67" t="n">
-        <v>25.18395580949456</v>
+        <v>12.11181145593546</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1579,14 +1579,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>exhibit</t>
+          <t>crowd</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>30.0085042786822</v>
+        <v>10.47852942896033</v>
       </c>
       <c r="C68" t="n">
-        <v>30.57876186022176</v>
+        <v>11.17882142284048</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1597,14 +1597,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26.47564643768123</v>
+        <v>10.47485482203083</v>
       </c>
       <c r="C69" t="n">
-        <v>26.98113872663216</v>
+        <v>11.17887905276522</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1615,14 +1615,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27.348628006378</v>
+        <v>10.4725051100374</v>
       </c>
       <c r="C70" t="n">
-        <v>27.88003512652309</v>
+        <v>11.17911796113076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,14 +1633,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>home</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25.58299760907231</v>
+        <v>10.45821790887974</v>
       </c>
       <c r="C71" t="n">
-        <v>26.08126330944545</v>
+        <v>11.17925094359041</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1651,14 +1651,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23.81728384865436</v>
+        <v>9.557266503151848</v>
       </c>
       <c r="C72" t="n">
-        <v>24.28248734263222</v>
+        <v>10.24653983240104</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1669,14 +1669,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>need pay</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>21.15124520281827</v>
+        <v>9.554273922839551</v>
       </c>
       <c r="C73" t="n">
-        <v>21.58345385190219</v>
+        <v>10.24646658769993</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>zoo</t>
+          <t>come year</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>45.8138258082438</v>
+        <v>9.52359482175096</v>
       </c>
       <c r="C74" t="n">
-        <v>46.76345947109719</v>
+        <v>10.24482124096452</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>writer</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>59.90864690479278</v>
+        <v>24.25615570128659</v>
       </c>
       <c r="C75" t="n">
-        <v>61.15212958153036</v>
+        <v>26.09582963037311</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1723,14 +1723,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>show limited</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>29.95174124492917</v>
+        <v>8.620541792755811</v>
       </c>
       <c r="C76" t="n">
-        <v>30.57593625095848</v>
+        <v>9.313840722336813</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,14 +1741,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>attend</t>
+          <t>fashion</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20.24981805336509</v>
+        <v>8.615857507808022</v>
       </c>
       <c r="C77" t="n">
-        <v>20.68314145834103</v>
+        <v>9.313953419494011</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1759,14 +1759,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dark</t>
+          <t>engage</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22.01065552235418</v>
+        <v>8.615445146093005</v>
       </c>
       <c r="C78" t="n">
-        <v>22.48167468805352</v>
+        <v>9.314011039972467</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1777,14 +1777,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>festival</t>
+          <t>annual pass</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>20.24179689706137</v>
+        <v>7.692379049146209</v>
       </c>
       <c r="C79" t="n">
-        <v>20.68274217288958</v>
+        <v>8.381493355260343</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,14 +1795,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vod</t>
+          <t>promotion</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>19.35207962451222</v>
+        <v>7.680738913492838</v>
       </c>
       <c r="C80" t="n">
-        <v>19.78301268574603</v>
+        <v>8.381639857957898</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>participant</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>21.98674729268768</v>
+        <v>7.666139536174735</v>
       </c>
       <c r="C81" t="n">
-        <v>22.48048455935977</v>
+        <v>8.381719451396279</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1831,14 +1831,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>queue</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>21.10029727075523</v>
+        <v>23.01839312148658</v>
       </c>
       <c r="C82" t="n">
-        <v>21.58091771281155</v>
+        <v>25.18055074987462</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1849,14 +1849,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>video demand</t>
+          <t>maybe year</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>18.45047115262459</v>
+        <v>6.760075604266968</v>
       </c>
       <c r="C83" t="n">
-        <v>18.88269126612836</v>
+        <v>7.449015537878743</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,14 +1867,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>30pm</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25.44524272915188</v>
+        <v>6.759192475971985</v>
       </c>
       <c r="C84" t="n">
-        <v>26.07440600392372</v>
+        <v>7.448962796780446</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1885,14 +1885,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>city</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>21.02787681444661</v>
+        <v>6.750903796764894</v>
       </c>
       <c r="C85" t="n">
-        <v>21.57731269210205</v>
+        <v>7.44891088367971</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1903,14 +1903,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sistic</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16.6460923686543</v>
+        <v>6.748420127892216</v>
       </c>
       <c r="C86" t="n">
-        <v>17.0819905916048</v>
+        <v>7.448809988627513</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1921,14 +1921,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sure</t>
+          <t>probably</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>20.14844237930916</v>
+        <v>6.744305837720549</v>
       </c>
       <c r="C87" t="n">
-        <v>20.67809507472154</v>
+        <v>7.448692794055315</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>stall</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16.63547480161519</v>
+        <v>6.742047787900733</v>
       </c>
       <c r="C88" t="n">
-        <v>17.08146205932239</v>
+        <v>7.44898357622014</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1957,14 +1957,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>advance</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>22.75619960535343</v>
+        <v>6.733981861813117</v>
       </c>
       <c r="C89" t="n">
-        <v>23.37422737239094</v>
+        <v>7.449123719377007</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1975,14 +1975,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>21.8752078930782</v>
+        <v>6.730780292699026</v>
       </c>
       <c r="C90" t="n">
-        <v>22.47493223525127</v>
+        <v>7.448744492879139</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1993,14 +1993,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>hide</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15.74333955286756</v>
+        <v>6.723641272874387</v>
       </c>
       <c r="C91" t="n">
-        <v>16.18161220764767</v>
+        <v>7.447441883060383</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2011,14 +2011,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>much change</t>
+          <t>away</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>26.23826651196388</v>
+        <v>6.708980778447454</v>
       </c>
       <c r="C92" t="n">
-        <v>26.9693221820836</v>
+        <v>7.449266091702121</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2029,14 +2029,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>cancel</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>19.23869825422354</v>
+        <v>5.82591083974413</v>
       </c>
       <c r="C93" t="n">
-        <v>19.77736867010711</v>
+        <v>6.516382095373858</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2047,14 +2047,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>capacity</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>17.47800877501453</v>
+        <v>5.824175970708273</v>
       </c>
       <c r="C94" t="n">
-        <v>17.97884280718359</v>
+        <v>6.516415937798704</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>session</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>14.85161941853971</v>
+        <v>5.824093295376846</v>
       </c>
       <c r="C95" t="n">
-        <v>15.28178301996979</v>
+        <v>6.516366000716029</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2083,14 +2083,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>happening</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>20.0878279990314</v>
+        <v>5.823975813476576</v>
       </c>
       <c r="C96" t="n">
-        <v>20.6750777491299</v>
+        <v>6.516277002289588</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2101,14 +2101,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>animal show</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>15.71328593635988</v>
+        <v>5.82282487579587</v>
       </c>
       <c r="C97" t="n">
-        <v>16.18011616750334</v>
+        <v>6.516244824931651</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pay</t>
+          <t>reno</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20.06948369809862</v>
+        <v>5.820180051776095</v>
       </c>
       <c r="C98" t="n">
-        <v>20.67416458746083</v>
+        <v>6.516551521615662</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2137,14 +2137,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>involve</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>18.28713085231439</v>
+        <v>5.803473476561408</v>
       </c>
       <c r="C99" t="n">
-        <v>18.87456034297015</v>
+        <v>6.516558982724719</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2155,14 +2155,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>many animal</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>13.92989344527029</v>
+        <v>5.802961300460587</v>
       </c>
       <c r="C100" t="n">
-        <v>14.38046017046872</v>
+        <v>6.516684071321647</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2173,14 +2173,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>social medium</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>13.92457129543651</v>
+        <v>5.802961300460587</v>
       </c>
       <c r="C101" t="n">
-        <v>14.38019523896531</v>
+        <v>6.516684071321647</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>far</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>18.26699533162767</v>
+        <v>43.35809924235322</v>
       </c>
       <c r="C102" t="n">
-        <v>18.87355801610347</v>
+        <v>53.11146590516802</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2209,14 +2209,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ticket</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>26.78985502681914</v>
+        <v>18.1315250401905</v>
       </c>
       <c r="C103" t="n">
-        <v>27.85221994465664</v>
+        <v>21.46135382019761</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>19.91920479664205</v>
+        <v>74.33488857130273</v>
       </c>
       <c r="C104" t="n">
-        <v>20.66668384818445</v>
+        <v>96.23678358093116</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2245,14 +2245,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>18.11989442320738</v>
+        <v>15.91998027225211</v>
       </c>
       <c r="C105" t="n">
-        <v>18.86623547426591</v>
+        <v>19.56121741097662</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2263,14 +2263,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>people</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>118.3633971068442</v>
+        <v>30.83083037233165</v>
       </c>
       <c r="C106" t="n">
-        <v>147.895092076228</v>
+        <v>40.98733288965744</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2281,14 +2281,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>look</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>115.0518533959056</v>
+        <v>17.18236507676422</v>
       </c>
       <c r="C107" t="n">
-        <v>144.3084857473199</v>
+        <v>21.42480022093972</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>price</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>19.57655445165362</v>
+        <v>9.494176243794881</v>
       </c>
       <c r="C108" t="n">
-        <v>20.64962704334404</v>
+        <v>11.17574602246269</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>today</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>85.92862042560463</v>
+        <v>16.52981183058413</v>
       </c>
       <c r="C109" t="n">
-        <v>118.9064331406893</v>
+        <v>21.47607549167762</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2335,14 +2335,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>115.5756652411113</v>
+        <v>8.594186635346363</v>
       </c>
       <c r="C110" t="n">
-        <v>265.8070713340659</v>
+        <v>10.19458387581538</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2353,14 +2353,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>41.8388598448496</v>
+        <v>18.05616503846382</v>
       </c>
       <c r="C111" t="n">
-        <v>69.6624753301911</v>
+        <v>26.87048202105228</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2371,14 +2371,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>kid</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>41.33921259221236</v>
+        <v>40.37947347724243</v>
       </c>
       <c r="C112" t="n">
-        <v>70.49304358663771</v>
+        <v>98.37098920834879</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2389,14 +2389,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>34.89640491094352</v>
+        <v>8.769106176848046</v>
       </c>
       <c r="C113" t="n">
-        <v>58.19616378230855</v>
+        <v>11.17385957985636</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2407,14 +2407,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>expensive</t>
+          <t>need</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25.42394837974622</v>
+        <v>24.69882627101317</v>
       </c>
       <c r="C114" t="n">
-        <v>33.7723079397675</v>
+        <v>60.55383799271191</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2425,14 +2425,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>quite</t>
+          <t>got</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>25.54417218265061</v>
+        <v>12.14980513132725</v>
       </c>
       <c r="C115" t="n">
-        <v>37.20005343094313</v>
+        <v>19.31747617203583</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>soon</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>41.25123835752448</v>
+        <v>12.39681590854831</v>
       </c>
       <c r="C116" t="n">
-        <v>141.4902022795174</v>
+        <v>20.10399476661679</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2461,14 +2461,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>28.19377672598678</v>
+        <v>8.943589210412416</v>
       </c>
       <c r="C117" t="n">
-        <v>57.00707317693737</v>
+        <v>13.03224803076943</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2479,14 +2479,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>23.89188525389516</v>
+        <v>19.86756665700859</v>
       </c>
       <c r="C118" t="n">
-        <v>36.26236395924599</v>
+        <v>67.21863729927088</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2497,14 +2497,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>close</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25.9772025261266</v>
+        <v>18.51346931584259</v>
       </c>
       <c r="C119" t="n">
-        <v>89.40346246896809</v>
+        <v>66.30440773387075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2515,14 +2515,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>22.49625053064554</v>
+        <v>16.63025387673758</v>
       </c>
       <c r="C120" t="n">
-        <v>45.60273298511596</v>
+        <v>54.87878782342807</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>20.99230796874439</v>
+        <v>21.66812054902129</v>
       </c>
       <c r="C121" t="n">
-        <v>30.98538449014909</v>
+        <v>124.1275992359762</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2551,108 +2551,108 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>miss</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>91.78551792381739</v>
+        <v>11.14511141037396</v>
       </c>
       <c r="C122" t="n">
-        <v>92.41908156627019</v>
+        <v>26.23344109666698</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>tram</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>62.81204763051434</v>
+        <v>9.352167898094825</v>
       </c>
       <c r="C123" t="n">
-        <v>63.32827323190984</v>
+        <v>15.82160268781674</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>149.3757708504373</v>
+        <v>11.12331609767759</v>
       </c>
       <c r="C124" t="n">
-        <v>150.6193839613803</v>
+        <v>47.93767845547644</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50.01918662857791</v>
+        <v>8.879136434185011</v>
       </c>
       <c r="C125" t="n">
-        <v>50.49464040271833</v>
+        <v>14.01818013474352</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>attraction</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>53.36191651068109</v>
+        <v>8.776136324271159</v>
       </c>
       <c r="C126" t="n">
-        <v>53.92054144915804</v>
+        <v>27.19296681995592</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>interesting</t>
+          <t>sistic</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>47.43024997772666</v>
+        <v>8.701271800345818</v>
       </c>
       <c r="C127" t="n">
-        <v>47.92950453338256</v>
+        <v>17.67902692552996</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Topic2</t>
+          <t>Topic1</t>
         </is>
       </c>
     </row>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>41.47320111760926</v>
+        <v>44.83653413543369</v>
       </c>
       <c r="C128" t="n">
-        <v>41.93979731659511</v>
+        <v>45.52921047803527</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2677,14 +2677,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>enough</t>
+          <t>quite</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>39.72656324194506</v>
+        <v>38.30343000785953</v>
       </c>
       <c r="C129" t="n">
-        <v>40.23079010181647</v>
+        <v>39.02373596376201</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2695,14 +2695,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>come back</t>
+          <t>well</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>37.08192850853401</v>
+        <v>29.94666721810674</v>
       </c>
       <c r="C130" t="n">
-        <v>37.66857207699245</v>
+        <v>30.65981266890393</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2713,14 +2713,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>32.00992263641707</v>
+        <v>28.09593520678197</v>
       </c>
       <c r="C131" t="n">
-        <v>32.5327542820804</v>
+        <v>28.80148186372537</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2731,14 +2731,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>live</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>45.410087556206</v>
+        <v>28.08811201233168</v>
       </c>
       <c r="C132" t="n">
-        <v>46.23482639526638</v>
+        <v>28.8014531577648</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2749,14 +2749,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>33.59879570291012</v>
+        <v>23.46204813897631</v>
       </c>
       <c r="C133" t="n">
-        <v>34.25002629093105</v>
+        <v>24.15460164013821</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2767,14 +2767,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>singapore</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>24.35283770385887</v>
+        <v>21.59971408795382</v>
       </c>
       <c r="C134" t="n">
-        <v>24.83159853100187</v>
+        <v>22.29585448854136</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2785,14 +2785,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>activity</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>23.47108050362855</v>
+        <v>21.59471353240828</v>
       </c>
       <c r="C135" t="n">
-        <v>23.9775369772075</v>
+        <v>22.2959806072882</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2803,14 +2803,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>shopping</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>21.78021098277301</v>
+        <v>21.59294524635278</v>
       </c>
       <c r="C136" t="n">
-        <v>22.26560823657895</v>
+        <v>22.29612310094419</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2821,14 +2821,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>singapore</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>20.08480129342204</v>
+        <v>18.81198517285918</v>
       </c>
       <c r="C137" t="n">
-        <v>20.55391734086573</v>
+        <v>19.50780644228533</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2839,14 +2839,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>20.07014802665037</v>
+        <v>18.81206414842715</v>
       </c>
       <c r="C138" t="n">
-        <v>20.55468497867404</v>
+        <v>19.50798954365374</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2857,14 +2857,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ride</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>20.04727619735859</v>
+        <v>18.81198828127026</v>
       </c>
       <c r="C139" t="n">
-        <v>20.55588316070293</v>
+        <v>19.50791565950024</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2875,14 +2875,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>video demand</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>19.20520632947444</v>
+        <v>18.80662198646825</v>
       </c>
       <c r="C140" t="n">
-        <v>19.69974251442383</v>
+        <v>19.50810578963623</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2893,14 +2893,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>17.49653535409187</v>
+        <v>18.7889809723365</v>
       </c>
       <c r="C141" t="n">
-        <v>17.98874633509728</v>
+        <v>19.50748779059305</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2911,14 +2911,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>day</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>15.81732009809128</v>
+        <v>17.85538098806177</v>
       </c>
       <c r="C142" t="n">
-        <v>16.27620706478493</v>
+        <v>18.57881994929042</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2929,14 +2929,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>get</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>17.47640637290633</v>
+        <v>15.08712392798316</v>
       </c>
       <c r="C143" t="n">
-        <v>17.98980082808115</v>
+        <v>15.79052519838895</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2947,14 +2947,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>young</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>17.47136003403967</v>
+        <v>14.16562032055105</v>
       </c>
       <c r="C144" t="n">
-        <v>17.99006518964421</v>
+        <v>14.86112825314197</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>area</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>182.1327981068308</v>
+        <v>12.29591062905726</v>
       </c>
       <c r="C145" t="n">
-        <v>187.6142697957852</v>
+        <v>13.00235163894777</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2983,14 +2983,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>walk</t>
+          <t>shelter</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>17.4574137257632</v>
+        <v>10.44888729219707</v>
       </c>
       <c r="C146" t="n">
-        <v>17.99079579215673</v>
+        <v>11.14378197552822</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3001,14 +3001,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>panda</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>15.78433200508185</v>
+        <v>9.514746985397972</v>
       </c>
       <c r="C147" t="n">
-        <v>16.27793520553413</v>
+        <v>10.21443203092188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3019,14 +3019,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bring</t>
+          <t>diff</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>14.94499345664284</v>
+        <v>9.514524394770286</v>
       </c>
       <c r="C148" t="n">
-        <v>15.42165147415983</v>
+        <v>10.21452212844429</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3037,14 +3037,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>14.10030425790632</v>
+        <v>8.587614250016625</v>
       </c>
       <c r="C149" t="n">
-        <v>14.56564804625173</v>
+        <v>9.285332822544028</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3055,14 +3055,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>attract</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>14.08675568471087</v>
+        <v>8.584756268660042</v>
       </c>
       <c r="C150" t="n">
-        <v>14.56635781269457</v>
+        <v>9.285226244823779</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3073,14 +3073,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>boat ride</t>
+          <t>open</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>13.25546705241374</v>
+        <v>23.20044334746073</v>
       </c>
       <c r="C151" t="n">
-        <v>13.70965237194449</v>
+        <v>25.09901101472342</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3091,14 +3091,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>one time</t>
+          <t>panel</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>14.04723522549457</v>
+        <v>8.58304925189225</v>
       </c>
       <c r="C152" t="n">
-        <v>14.5684281632294</v>
+        <v>9.285448674193885</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3109,14 +3109,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>way</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11.53009475788895</v>
+        <v>8.568302060120063</v>
       </c>
       <c r="C153" t="n">
-        <v>11.99953112134344</v>
+        <v>9.285269790769686</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3127,14 +3127,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>new attraction</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>13.98479179387908</v>
+        <v>7.665280191721115</v>
       </c>
       <c r="C154" t="n">
-        <v>14.57169937501708</v>
+        <v>8.355949852846063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3145,14 +3145,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>much animal</t>
+          <t>moderator</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>12.33787377931263</v>
+        <v>7.657735437428442</v>
       </c>
       <c r="C155" t="n">
-        <v>12.85746815546095</v>
+        <v>8.356087184854506</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3163,14 +3163,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>11.51031858409475</v>
+        <v>7.646946395590393</v>
       </c>
       <c r="C156" t="n">
-        <v>12.00056713187565</v>
+        <v>8.355833080252719</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3181,14 +3181,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>many time</t>
+          <t>know singapore</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>11.51005287903246</v>
+        <v>6.736967762640654</v>
       </c>
       <c r="C157" t="n">
-        <v>12.00058105131466</v>
+        <v>7.426650166282765</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3199,14 +3199,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>stuff</t>
+          <t>entertainment</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10.6812346964956</v>
+        <v>6.736170044149393</v>
       </c>
       <c r="C158" t="n">
-        <v>11.14374619159814</v>
+        <v>7.426631189385885</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3217,14 +3217,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>cruise</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>11.49048689416368</v>
+        <v>6.735328055474089</v>
       </c>
       <c r="C159" t="n">
-        <v>12.00160605072103</v>
+        <v>7.426582548046905</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3235,14 +3235,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>renovation</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>11.48270805933122</v>
+        <v>6.728743663553854</v>
       </c>
       <c r="C160" t="n">
-        <v>12.00201355901348</v>
+        <v>7.426570922852784</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3253,14 +3253,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10.66079694083535</v>
+        <v>7.477288654999989</v>
       </c>
       <c r="C161" t="n">
-        <v>11.14481686028969</v>
+        <v>8.358320216507167</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3271,14 +3271,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>interested</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11.47441266811648</v>
+        <v>5.805652123359927</v>
       </c>
       <c r="C162" t="n">
-        <v>12.0024481280438</v>
+        <v>6.497261350127598</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3289,14 +3289,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>see lot</t>
+          <t>leave</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>9.827269175347382</v>
+        <v>5.802431506852195</v>
       </c>
       <c r="C163" t="n">
-        <v>10.28822872057026</v>
+        <v>6.497332526164124</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3307,14 +3307,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10.64482001798939</v>
+        <v>5.799966441396295</v>
       </c>
       <c r="C164" t="n">
-        <v>11.14565384020872</v>
+        <v>6.497385604336853</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3325,14 +3325,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>crowded</t>
+          <t>streaming</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>10.6438399008522</v>
+        <v>5.795667883247444</v>
       </c>
       <c r="C165" t="n">
-        <v>11.14570518541259</v>
+        <v>6.497464075388802</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3343,14 +3343,14 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>sistic live</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9.79664013705132</v>
+        <v>5.79108456081839</v>
       </c>
       <c r="C166" t="n">
-        <v>10.28983327798349</v>
+        <v>6.497501175363052</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>annual</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>8.966761551212779</v>
+        <v>5.788149793885879</v>
       </c>
       <c r="C167" t="n">
-        <v>9.433053969406522</v>
+        <v>6.497567569309558</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3379,14 +3379,14 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>diff</t>
+          <t>much attraction</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8.965562852844631</v>
+        <v>4.877936872008566</v>
       </c>
       <c r="C168" t="n">
-        <v>9.433116765382392</v>
+        <v>5.567936413341973</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3397,14 +3397,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>time enough</t>
+          <t>gss</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>8.964358889726052</v>
+        <v>4.877906605808044</v>
       </c>
       <c r="C169" t="n">
-        <v>9.433179837161912</v>
+        <v>5.567985001042892</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sg</t>
+          <t>relax</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>10.59063406602469</v>
+        <v>4.877630707541996</v>
       </c>
       <c r="C170" t="n">
-        <v>11.14849246903184</v>
+        <v>5.567994085705109</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3433,14 +3433,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>shelter</t>
+          <t>lot discount</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>9.771204623011013</v>
+        <v>4.877530446590078</v>
       </c>
       <c r="C171" t="n">
-        <v>10.29116576326175</v>
+        <v>5.567986585102807</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3451,14 +3451,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>engaging</t>
+          <t>fusion</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>9.767899021997685</v>
+        <v>4.87712382625864</v>
       </c>
       <c r="C172" t="n">
-        <v>10.29133893313272</v>
+        <v>5.567987804550439</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3469,14 +3469,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>far</t>
+          <t>ride open</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>44.40459056281293</v>
+        <v>4.870739779008173</v>
       </c>
       <c r="C173" t="n">
-        <v>48.98826315396619</v>
+        <v>5.568078446534969</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3487,14 +3487,14 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>hard see</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>12.1111685999356</v>
+        <v>4.869193603060673</v>
       </c>
       <c r="C174" t="n">
-        <v>12.86934451516688</v>
+        <v>5.567734967361312</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3505,14 +3505,14 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>39.77178175962717</v>
+        <v>4.868210628279727</v>
       </c>
       <c r="C175" t="n">
-        <v>49.23096119884261</v>
+        <v>5.56791971352366</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3523,14 +3523,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>wait new</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>100.2389639219929</v>
+        <v>4.867045331828642</v>
       </c>
       <c r="C176" t="n">
-        <v>141.4902022795174</v>
+        <v>5.567563432077637</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3541,14 +3541,14 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>exciting</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>20.02382575859842</v>
+        <v>4.851558815059954</v>
       </c>
       <c r="C177" t="n">
-        <v>23.25787363942117</v>
+        <v>5.567288861843949</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3559,14 +3559,14 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>know</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>63.42625994284148</v>
+        <v>33.90175637370408</v>
       </c>
       <c r="C178" t="n">
-        <v>89.40346246896809</v>
+        <v>39.08097543361022</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3577,14 +3577,14 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>150.2314060929546</v>
+        <v>12.1399551523939</v>
       </c>
       <c r="C179" t="n">
-        <v>265.8070713340659</v>
+        <v>13.9356840476196</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3595,14 +3595,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>stuff</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>26.18875761466255</v>
+        <v>10.35240562110025</v>
       </c>
       <c r="C180" t="n">
-        <v>36.43872249103441</v>
+        <v>12.07618808055304</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3613,14 +3613,14 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>love</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>26.83043421342634</v>
+        <v>13.15372656710364</v>
       </c>
       <c r="C181" t="n">
-        <v>38.20561509520841</v>
+        <v>15.79792846341889</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3631,14 +3631,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>attraction</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>19.52851423844414</v>
+        <v>43.99120201687997</v>
       </c>
       <c r="C182" t="n">
-        <v>25.08432941687323</v>
+        <v>57.83641442378367</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3649,14 +3649,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>12.78965208363058</v>
+        <v>37.79075394203254</v>
       </c>
       <c r="C183" t="n">
-        <v>14.63430892428868</v>
+        <v>54.87878782342807</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3667,14 +3667,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>still</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>28.81329645095058</v>
+        <v>19.89376745358986</v>
       </c>
       <c r="C184" t="n">
-        <v>57.00707317693737</v>
+        <v>27.02416255323051</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3685,14 +3685,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kid</t>
+          <t>much</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>29.15383099442534</v>
+        <v>84.08983316235394</v>
       </c>
       <c r="C185" t="n">
-        <v>70.49304358663771</v>
+        <v>159.5515285687601</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3703,14 +3703,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>23.10648245447042</v>
+        <v>17.81731530439338</v>
       </c>
       <c r="C186" t="n">
-        <v>45.60273298511596</v>
+        <v>25.63284558085221</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3721,14 +3721,14 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>27.8236154853415</v>
+        <v>11.57844151458334</v>
       </c>
       <c r="C187" t="n">
-        <v>69.6624753301911</v>
+        <v>15.80228331746528</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3739,14 +3739,14 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>32.97781271508471</v>
+        <v>14.56105533567928</v>
       </c>
       <c r="C188" t="n">
-        <v>118.9064331406893</v>
+        <v>21.38754558028644</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3757,14 +3757,14 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>find</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>23.29975887136503</v>
+        <v>10.97379517970353</v>
       </c>
       <c r="C189" t="n">
-        <v>58.19616378230855</v>
+        <v>14.90196381408974</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3775,14 +3775,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>see</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>17.10879806857871</v>
+        <v>83.57167532335441</v>
       </c>
       <c r="C190" t="n">
-        <v>29.7123605879411</v>
+        <v>272.4346800712678</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3793,14 +3793,14 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>hope</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>29.53169496938382</v>
+        <v>8.476436232890244</v>
       </c>
       <c r="C191" t="n">
-        <v>147.895092076228</v>
+        <v>11.04513460792668</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3811,14 +3811,14 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>big</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>29.25663235141429</v>
+        <v>8.889696632082744</v>
       </c>
       <c r="C192" t="n">
-        <v>144.3084857473199</v>
+        <v>11.94697483528729</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3829,18 +3829,3024 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>27.39809934767807</v>
+      </c>
+      <c r="C193" t="n">
+        <v>67.21863729927088</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>9.8343270811434</v>
+      </c>
+      <c r="C194" t="n">
+        <v>14.9167073093442</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>26.16783191363083</v>
+      </c>
+      <c r="C195" t="n">
+        <v>98.83232309615499</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>9.002892011384407</v>
+      </c>
+      <c r="C196" t="n">
+        <v>13.01387874941715</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>11.90472143617475</v>
+      </c>
+      <c r="C197" t="n">
+        <v>22.6853589305434</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>10.45256246955183</v>
+      </c>
+      <c r="C198" t="n">
+        <v>17.6717955760282</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>12.5778197251049</v>
+      </c>
+      <c r="C199" t="n">
+        <v>31.76679079313908</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>kid</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>16.92343390630618</v>
+      </c>
+      <c r="C200" t="n">
+        <v>71.45641139688978</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>option</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>8.95410706741964</v>
+      </c>
+      <c r="C201" t="n">
+        <v>13.01430458623546</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>lot</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>17.81452891699177</v>
+      </c>
+      <c r="C202" t="n">
+        <v>98.37098920834879</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>9.927344986924735</v>
+      </c>
+      <c r="C203" t="n">
+        <v>37.29807279857806</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>9.684374605342141</v>
+      </c>
+      <c r="C204" t="n">
+        <v>40.98733288965744</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>9.232449307030461</v>
+      </c>
+      <c r="C205" t="n">
+        <v>35.63382158904659</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>far</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>9.288637056352123</v>
+      </c>
+      <c r="C206" t="n">
+        <v>53.11146590516802</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>8.951647588272687</v>
+      </c>
+      <c r="C207" t="n">
+        <v>53.52201372569026</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Topic2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>192.4952543428376</v>
+      </c>
+      <c r="C208" t="n">
+        <v>193.2208443525567</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>145.7557797351697</v>
+      </c>
+      <c r="C209" t="n">
+        <v>146.4687040857303</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>58.43208926895662</v>
+      </c>
+      <c r="C210" t="n">
+        <v>59.14043763408313</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>interesting</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>48.72438329553542</v>
+      </c>
+      <c r="C211" t="n">
+        <v>49.43758271615837</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>come back</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>38.13960078198881</v>
+      </c>
+      <c r="C212" t="n">
+        <v>38.85238370241467</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>bird</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>34.5846521740611</v>
+      </c>
+      <c r="C213" t="n">
+        <v>35.32557364248544</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>see animal</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>30.20637276002159</v>
+      </c>
+      <c r="C214" t="n">
+        <v>30.91307919792046</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>26.66089127692388</v>
+      </c>
+      <c r="C215" t="n">
+        <v>27.38574735284593</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>much change</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>25.79854669902056</v>
+      </c>
+      <c r="C216" t="n">
+        <v>26.50243449443984</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>variety</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>24.91052812927363</v>
+      </c>
+      <c r="C217" t="n">
+        <v>25.62066600111161</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>24.90924110485776</v>
+      </c>
+      <c r="C218" t="n">
+        <v>25.62075567965693</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>queue</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>20.47313947600879</v>
+      </c>
+      <c r="C219" t="n">
+        <v>21.21168529872892</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>fun</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>18.71060954383146</v>
+      </c>
+      <c r="C220" t="n">
+        <v>19.4474232884318</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>17.84122726749296</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18.56464728639194</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>yr</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>15.18567152378116</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.91882295530458</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>already</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>59.7634475636146</v>
+      </c>
+      <c r="C223" t="n">
+        <v>62.81625554241128</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>many animal</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>13.44854102936786</v>
+      </c>
+      <c r="C224" t="n">
+        <v>14.1530391921263</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>animals</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>13.43544670883439</v>
+      </c>
+      <c r="C225" t="n">
+        <v>14.15379569294455</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>much animal</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>12.56473923757075</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13.27102728715759</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>come often</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>11.6875942929938</v>
+      </c>
+      <c r="C227" t="n">
+        <v>12.38865093165314</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>animal see</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>11.6781649025103</v>
+      </c>
+      <c r="C228" t="n">
+        <v>12.38918345254874</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>11.67078461305373</v>
+      </c>
+      <c r="C229" t="n">
+        <v>12.3897007851803</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>see already</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>10.80361984314665</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11.50666867179074</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>10.79448500737669</v>
+      </c>
+      <c r="C231" t="n">
+        <v>11.50718956751735</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>boring</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>10.78243521345583</v>
+      </c>
+      <c r="C232" t="n">
+        <v>11.50797325871891</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>see lot</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>9.900670834840069</v>
+      </c>
+      <c r="C233" t="n">
+        <v>10.62570574732334</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>see much</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>9.021581453813702</v>
+      </c>
+      <c r="C234" t="n">
+        <v>9.743458959359694</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>want come</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>8.158817328201243</v>
+      </c>
+      <c r="C235" t="n">
+        <v>8.860271114818795</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>lot animal</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>8.157825400282647</v>
+      </c>
+      <c r="C236" t="n">
+        <v>8.860337816375077</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>time come</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>8.157050768370993</v>
+      </c>
+      <c r="C237" t="n">
+        <v>8.860367037479278</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>8.15502986490249</v>
+      </c>
+      <c r="C238" t="n">
+        <v>8.860479462964173</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>already visit</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>8.152013869093985</v>
+      </c>
+      <c r="C239" t="n">
+        <v>8.86072662178397</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>bore</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>8.148050015319267</v>
+      </c>
+      <c r="C240" t="n">
+        <v>8.86089886606797</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>attractive</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>8.141065204794399</v>
+      </c>
+      <c r="C241" t="n">
+        <v>8.861372012228557</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>change much</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>7.275046747332327</v>
+      </c>
+      <c r="C242" t="n">
+        <v>7.978281259899495</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>exhibition</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>7.274893653806324</v>
+      </c>
+      <c r="C243" t="n">
+        <v>7.978269924084848</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>7.274612643395548</v>
+      </c>
+      <c r="C244" t="n">
+        <v>7.978289955891262</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>want see</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>6.394049526327346</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7.096101764155772</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>6.392265416307395</v>
+      </c>
+      <c r="C246" t="n">
+        <v>7.096204467885203</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>already see</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>6.391664406990868</v>
+      </c>
+      <c r="C247" t="n">
+        <v>7.096239017588309</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>long queue</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>6.38885857678139</v>
+      </c>
+      <c r="C248" t="n">
+        <v>7.096393188396878</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1yr</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>6.387046315820854</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7.096505255445862</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>lively</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>6.386007275614342</v>
+      </c>
+      <c r="C250" t="n">
+        <v>7.096587037762696</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>mandai</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>6.361341195005574</v>
+      </c>
+      <c r="C251" t="n">
+        <v>7.097902006073776</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>come already</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>5.512863495129474</v>
+      </c>
+      <c r="C252" t="n">
+        <v>6.213942775324485</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>promo</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>5.512352149507577</v>
+      </c>
+      <c r="C253" t="n">
+        <v>6.21397623928919</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>already come</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>5.511970676758784</v>
+      </c>
+      <c r="C254" t="n">
+        <v>6.21399374057916</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>place close</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>5.510727884942705</v>
+      </c>
+      <c r="C255" t="n">
+        <v>6.214064734757908</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ago</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>5.508835728762532</v>
+      </c>
+      <c r="C256" t="n">
+        <v>6.21417748729779</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>queue long</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>5.507850790627948</v>
+      </c>
+      <c r="C257" t="n">
+        <v>6.214219736090953</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>43.27953915638719</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50.65884107255727</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>exhibit</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>25.1264883489483</v>
+      </c>
+      <c r="C259" t="n">
+        <v>30.27095178322578</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>188.3758994944137</v>
+      </c>
+      <c r="C260" t="n">
+        <v>272.4346800712678</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>kid</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>54.05100014088813</v>
+      </c>
+      <c r="C261" t="n">
+        <v>71.45641139688978</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>bring</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>13.12518896426334</v>
+      </c>
+      <c r="C262" t="n">
+        <v>16.03657574526703</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>47.30247370704161</v>
+      </c>
+      <c r="C263" t="n">
+        <v>66.30440773387075</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>zoo</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>33.9019940094684</v>
+      </c>
+      <c r="C264" t="n">
+        <v>46.66726756592945</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>11.05037814514155</v>
+      </c>
+      <c r="C265" t="n">
+        <v>13.37253668540804</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>74.98365126820042</v>
+      </c>
+      <c r="C266" t="n">
+        <v>159.5515285687601</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>20.44764394234243</v>
+      </c>
+      <c r="C267" t="n">
+        <v>33.37573434492146</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>lot</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>39.93633780288508</v>
+      </c>
+      <c r="C268" t="n">
+        <v>98.37098920834879</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>31.72491147375017</v>
+      </c>
+      <c r="C269" t="n">
+        <v>72.15468538029063</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>depend</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>12.30975740959538</v>
+      </c>
+      <c r="C270" t="n">
+        <v>18.86070757898217</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>31.01217954875708</v>
+      </c>
+      <c r="C271" t="n">
+        <v>81.68982113602223</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>10.94372539813058</v>
+      </c>
+      <c r="C272" t="n">
+        <v>16.16151430438041</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>37.15493542527864</v>
+      </c>
+      <c r="C273" t="n">
+        <v>150.9346602915542</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>16.93869081283477</v>
+      </c>
+      <c r="C274" t="n">
+        <v>37.29807279857806</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>14.3111758804308</v>
+      </c>
+      <c r="C275" t="n">
+        <v>27.19296681995592</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>19.52696984519992</v>
+      </c>
+      <c r="C276" t="n">
+        <v>60.55383799271191</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>26.83297012005069</v>
+      </c>
+      <c r="C277" t="n">
+        <v>124.1275992359762</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>23.06991605813585</v>
+      </c>
+      <c r="C278" t="n">
+        <v>98.83232309615499</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>10.21850854167701</v>
+      </c>
+      <c r="C279" t="n">
+        <v>15.27021443883917</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>12.61503831601007</v>
+      </c>
+      <c r="C280" t="n">
+        <v>32.02749046475838</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>attraction</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>13.36182088186989</v>
+      </c>
+      <c r="C281" t="n">
+        <v>57.83641442378367</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>12.55959092394783</v>
+      </c>
+      <c r="C282" t="n">
+        <v>47.93767845547644</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>10.30555243635942</v>
+      </c>
+      <c r="C283" t="n">
+        <v>22.6853589305434</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Topic3</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>63.28751679017681</v>
+      </c>
+      <c r="C284" t="n">
+        <v>63.98891251126857</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>60.46649126360739</v>
+      </c>
+      <c r="C285" t="n">
+        <v>61.1650230700787</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>swf</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>48.22641093235385</v>
+      </c>
+      <c r="C286" t="n">
+        <v>48.92810565343519</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>enough</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>43.52086338443406</v>
+      </c>
+      <c r="C287" t="n">
+        <v>44.22117505363645</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>40.6871260958282</v>
+      </c>
+      <c r="C288" t="n">
+        <v>41.3969865845702</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>35.04696859111697</v>
+      </c>
+      <c r="C289" t="n">
+        <v>35.74930081132255</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>programme</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>32.22407209383931</v>
+      </c>
+      <c r="C290" t="n">
+        <v>32.92576700744119</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>21.87229540795949</v>
+      </c>
+      <c r="C291" t="n">
+        <v>22.57111848509315</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>20.93139020011632</v>
+      </c>
+      <c r="C292" t="n">
+        <v>21.62995828941553</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>attend</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>20.92873493758976</v>
+      </c>
+      <c r="C293" t="n">
+        <v>21.63000841137186</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>19.981183645312</v>
+      </c>
+      <c r="C294" t="n">
+        <v>20.68835227264078</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>compare</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>19.04711942152271</v>
+      </c>
+      <c r="C295" t="n">
+        <v>19.74705530449923</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>17.16197569875037</v>
+      </c>
+      <c r="C296" t="n">
+        <v>17.86453841091336</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>16.22741003959213</v>
+      </c>
+      <c r="C297" t="n">
+        <v>16.923531424375</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>16.21563201045435</v>
+      </c>
+      <c r="C298" t="n">
+        <v>16.92328007070527</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>one time</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>15.29309468152245</v>
+      </c>
+      <c r="C299" t="n">
+        <v>15.98218427021156</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>boat ride</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>14.34881316444747</v>
+      </c>
+      <c r="C300" t="n">
+        <v>15.04090032831197</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>busy</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>14.34032018611745</v>
+      </c>
+      <c r="C301" t="n">
+        <v>15.04076276706433</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>many time</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>12.46982792169287</v>
+      </c>
+      <c r="C302" t="n">
+        <v>13.15825733512675</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>12.46567651683589</v>
+      </c>
+      <c r="C303" t="n">
+        <v>13.15803530193023</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>schedule</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>11.52470988284561</v>
+      </c>
+      <c r="C304" t="n">
+        <v>12.21697574977195</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>10.58343453600157</v>
+      </c>
+      <c r="C305" t="n">
+        <v>11.27563757281414</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>engaging</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>10.58259905046732</v>
+      </c>
+      <c r="C306" t="n">
+        <v>11.27560871335148</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>10.58008273114018</v>
+      </c>
+      <c r="C307" t="n">
+        <v>11.27543003342349</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>safari</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>10.57846846329097</v>
+      </c>
+      <c r="C308" t="n">
+        <v>11.27517591068271</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>10.56961330348146</v>
+      </c>
+      <c r="C309" t="n">
+        <v>11.27516936015185</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>timing</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>10.56934051813951</v>
+      </c>
+      <c r="C310" t="n">
+        <v>11.27546519397838</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>time enough</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>9.647810730390839</v>
+      </c>
+      <c r="C311" t="n">
+        <v>10.33441560752879</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>9.642793891759156</v>
+      </c>
+      <c r="C312" t="n">
+        <v>10.33434207831306</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>revisit</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>9.642436511846475</v>
+      </c>
+      <c r="C313" t="n">
+        <v>10.33420694266698</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>next year</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>9.635116025432803</v>
+      </c>
+      <c r="C314" t="n">
+        <v>10.33369047945562</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>9.633343676095341</v>
+      </c>
+      <c r="C315" t="n">
+        <v>10.33425848134229</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>9.633093162016351</v>
+      </c>
+      <c r="C316" t="n">
+        <v>10.33424989881233</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>interactive</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>9.622811387174899</v>
+      </c>
+      <c r="C317" t="n">
+        <v>10.33365420884683</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>8.700969035738181</v>
+      </c>
+      <c r="C318" t="n">
+        <v>9.393058872925916</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>workshop</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>8.689289836087781</v>
+      </c>
+      <c r="C319" t="n">
+        <v>9.392904995371506</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>8.684543346393532</v>
+      </c>
+      <c r="C320" t="n">
+        <v>9.392864389229878</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>7.765038709573499</v>
+      </c>
+      <c r="C321" t="n">
+        <v>8.451804148904774</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>previous</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>7.75523956385923</v>
+      </c>
+      <c r="C322" t="n">
+        <v>8.451599039020575</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>7.75457328895895</v>
+      </c>
+      <c r="C323" t="n">
+        <v>8.451589954251668</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>7.753411187052114</v>
+      </c>
+      <c r="C324" t="n">
+        <v>8.45166531132681</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>6.823763607248194</v>
+      </c>
+      <c r="C325" t="n">
+        <v>7.510492031304326</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>new experience</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>6.821339005416649</v>
+      </c>
+      <c r="C326" t="n">
+        <v>7.510469217378303</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>one year</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>6.818554298433279</v>
+      </c>
+      <c r="C327" t="n">
+        <v>7.510179034500762</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>improvement</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>6.81805402231832</v>
+      </c>
+      <c r="C328" t="n">
+        <v>7.510208993474276</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>compare zoo</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>6.815674491735463</v>
+      </c>
+      <c r="C329" t="n">
+        <v>7.510179812206915</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>6.808131684703173</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7.510327671714695</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>6.796889206981431</v>
+      </c>
+      <c r="C331" t="n">
+        <v>7.510164220034264</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>go zoo</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>5.882493790144235</v>
+      </c>
+      <c r="C332" t="n">
+        <v>6.569160926653783</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>5.881650327817858</v>
+      </c>
+      <c r="C333" t="n">
+        <v>6.569167759746668</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>vod</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>18.355840278272</v>
+      </c>
+      <c r="C334" t="n">
+        <v>20.66793404536849</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>20.12316287115582</v>
+      </c>
+      <c r="C335" t="n">
+        <v>23.48732676617156</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>44.10206606376409</v>
+      </c>
+      <c r="C336" t="n">
+        <v>53.52201372569026</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>113.3015729773721</v>
+      </c>
+      <c r="C337" t="n">
+        <v>150.9346602915542</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>feel</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>25.80282656827598</v>
+      </c>
+      <c r="C338" t="n">
+        <v>31.64039686709862</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>festival</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>18.11431030988717</v>
+      </c>
+      <c r="C339" t="n">
+        <v>21.59420388914157</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ride</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>17.53911771475771</v>
+      </c>
+      <c r="C340" t="n">
+        <v>22.516132290031</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>75.39085423752907</v>
+      </c>
+      <c r="C341" t="n">
+        <v>124.1275992359762</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>25.94218169209537</v>
+      </c>
+      <c r="C342" t="n">
+        <v>35.63382158904659</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>50.1986325933774</v>
+      </c>
+      <c r="C343" t="n">
+        <v>81.68982113602223</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
           <t>give</t>
         </is>
       </c>
-      <c r="B193" t="n">
-        <v>15.80076091251073</v>
-      </c>
-      <c r="C193" t="n">
-        <v>27.08012248834449</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Topic2</t>
+      <c r="B344" t="n">
+        <v>20.82068275733017</v>
+      </c>
+      <c r="C344" t="n">
+        <v>29.06287911335062</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>49.35441921333613</v>
+      </c>
+      <c r="C345" t="n">
+        <v>98.83232309615499</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>18.64167777444808</v>
+      </c>
+      <c r="C346" t="n">
+        <v>28.11727320846346</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>14.71957260511877</v>
+      </c>
+      <c r="C347" t="n">
+        <v>21.23922355234864</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>32.08016565097679</v>
+      </c>
+      <c r="C348" t="n">
+        <v>72.15468538029063</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>session</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>12.04178587077412</v>
+      </c>
+      <c r="C349" t="n">
+        <v>15.94094593160051</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>14.91643220691973</v>
+      </c>
+      <c r="C350" t="n">
+        <v>23.08489073260202</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>19.38804836786944</v>
+      </c>
+      <c r="C351" t="n">
+        <v>47.93767845547644</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>miss</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>14.62117928110739</v>
+      </c>
+      <c r="C352" t="n">
+        <v>26.23344109666698</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>19.72144686684652</v>
+      </c>
+      <c r="C353" t="n">
+        <v>67.21863729927088</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>21.4324773238447</v>
+      </c>
+      <c r="C354" t="n">
+        <v>96.23678358093116</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>13.145884394759</v>
+      </c>
+      <c r="C355" t="n">
+        <v>32.02749046475838</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>11.4186481624816</v>
+      </c>
+      <c r="C356" t="n">
+        <v>19.51138058292165</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>12.53397627156864</v>
+      </c>
+      <c r="C357" t="n">
+        <v>31.76679079313908</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>14.04940794489454</v>
+      </c>
+      <c r="C358" t="n">
+        <v>60.55383799271191</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>zoo</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>12.28878284235733</v>
+      </c>
+      <c r="C359" t="n">
+        <v>46.66726756592945</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Topic4</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>10.89325233950674</v>
+      </c>
+      <c r="C360" t="n">
+        <v>24.31047767932665</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Topic4</t>
         </is>
       </c>
     </row>
